--- a/forms/app/undo_death_report.xlsx
+++ b/forms/app/undo_death_report.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-lgh\forms\app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8400" activeTab="2"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="survey" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="choices" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="settings" sheetId="3" r:id="rId5"/>
-    <sheet state="hidden" name="choices-backup" sheetId="4" r:id="rId6"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="choices-backup" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -403,46 +411,54 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
   <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <name val="Nunito Sans"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Nunito Sans"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -450,7 +466,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -526,152 +542,399 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AJ45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.29"/>
-    <col customWidth="1" min="2" max="2" width="28.29"/>
-    <col customWidth="1" min="3" max="3" width="43.29"/>
-    <col customWidth="1" hidden="1" min="4" max="9" width="19.71"/>
-    <col customWidth="1" min="10" max="10" width="14.43"/>
-    <col customWidth="1" min="11" max="11" width="49.0"/>
-    <col customWidth="1" min="12" max="12" width="17.43"/>
-    <col customWidth="1" min="13" max="13" width="22.0"/>
-    <col customWidth="1" min="14" max="14" width="32.71"/>
-    <col customWidth="1" hidden="1" min="15" max="19" width="16.0"/>
-    <col customWidth="1" hidden="1" min="20" max="20" width="12.86"/>
-    <col customWidth="1" min="21" max="21" width="73.86"/>
-    <col customWidth="1" min="22" max="23" width="14.43"/>
-    <col customWidth="1" hidden="1" min="24" max="29" width="14.43"/>
-    <col customWidth="1" min="30" max="30" width="14.43"/>
-    <col customWidth="1" min="31" max="36" width="29.86"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="4" max="9" width="19.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="49" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="14" max="14" width="32.7109375" customWidth="1"/>
+    <col min="15" max="19" width="16" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="73.85546875" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" customWidth="1"/>
+    <col min="24" max="29" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" customWidth="1"/>
+    <col min="31" max="36" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:36" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -775,7 +1038,7 @@
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:36" ht="15.75" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>44</v>
       </c>
@@ -823,7 +1086,7 @@
       <c r="AI2" s="13"/>
       <c r="AJ2" s="13"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:36" ht="15.75" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>50</v>
       </c>
@@ -869,7 +1132,7 @@
       <c r="AI3" s="13"/>
       <c r="AJ3" s="13"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:36" ht="15.75" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>50</v>
       </c>
@@ -913,7 +1176,7 @@
       <c r="AI4" s="13"/>
       <c r="AJ4" s="13"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:36" ht="15.75" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>44</v>
       </c>
@@ -957,7 +1220,7 @@
       <c r="AI5" s="13"/>
       <c r="AJ5" s="13"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:36" ht="15.75" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>59</v>
       </c>
@@ -1003,7 +1266,7 @@
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:36" ht="15.75" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>50</v>
       </c>
@@ -1047,7 +1310,7 @@
       <c r="AI7" s="13"/>
       <c r="AJ7" s="13"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:36" ht="15.75" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>50</v>
       </c>
@@ -1091,7 +1354,7 @@
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:36" ht="15.75" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>50</v>
       </c>
@@ -1135,7 +1398,7 @@
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:36" ht="15.75" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>50</v>
       </c>
@@ -1172,7 +1435,7 @@
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="13"/>
       <c r="AF10" s="13"/>
@@ -1181,7 +1444,7 @@
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:36" ht="15.75" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>50</v>
       </c>
@@ -1225,7 +1488,7 @@
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:36" ht="15.75" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>44</v>
       </c>
@@ -1269,7 +1532,7 @@
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:36" ht="15.75" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>44</v>
       </c>
@@ -1313,7 +1576,7 @@
       <c r="AI13" s="13"/>
       <c r="AJ13" s="13"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:36" ht="15.75" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>44</v>
       </c>
@@ -1357,7 +1620,7 @@
       <c r="AI14" s="13"/>
       <c r="AJ14" s="13"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:36" ht="15.75" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>50</v>
       </c>
@@ -1401,7 +1664,7 @@
       <c r="AI15" s="13"/>
       <c r="AJ15" s="13"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:36" ht="15.75" customHeight="1">
       <c r="A16" s="10" t="s">
         <v>50</v>
       </c>
@@ -1445,7 +1708,7 @@
       <c r="AI16" s="13"/>
       <c r="AJ16" s="13"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:36" ht="15.75" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>81</v>
       </c>
@@ -1485,7 +1748,7 @@
       <c r="AI17" s="13"/>
       <c r="AJ17" s="13"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:36" ht="15.75" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>81</v>
       </c>
@@ -1525,7 +1788,7 @@
       <c r="AI18" s="13"/>
       <c r="AJ18" s="13"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:36" ht="15.75" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>81</v>
       </c>
@@ -1565,7 +1828,7 @@
       <c r="AI19" s="13"/>
       <c r="AJ19" s="13"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:36" ht="15.75" customHeight="1">
       <c r="A20" s="10" t="s">
         <v>81</v>
       </c>
@@ -1605,7 +1868,7 @@
       <c r="AI20" s="13"/>
       <c r="AJ20" s="13"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:36" ht="15.75" customHeight="1">
       <c r="A21" s="10" t="s">
         <v>81</v>
       </c>
@@ -1645,7 +1908,7 @@
       <c r="AI21" s="13"/>
       <c r="AJ21" s="13"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:36" ht="15.75" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -1683,7 +1946,7 @@
       <c r="AI22" s="23"/>
       <c r="AJ22" s="23"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:36" ht="15.75" customHeight="1">
       <c r="A23" s="24" t="s">
         <v>82</v>
       </c>
@@ -1722,7 +1985,7 @@
       <c r="AB23" s="25"/>
       <c r="AC23" s="25"/>
       <c r="AD23" s="25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="25"/>
       <c r="AF23" s="26" t="s">
@@ -1733,7 +1996,7 @@
       <c r="AI23" s="26"/>
       <c r="AJ23" s="26"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:36" ht="15.75" customHeight="1">
       <c r="A24" s="24" t="s">
         <v>82</v>
       </c>
@@ -1772,7 +2035,7 @@
       <c r="AB24" s="25"/>
       <c r="AC24" s="25"/>
       <c r="AD24" s="25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="25"/>
       <c r="AF24" s="26" t="s">
@@ -1783,7 +2046,7 @@
       <c r="AI24" s="26"/>
       <c r="AJ24" s="26"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:36" ht="15.75" customHeight="1">
       <c r="A25" s="24" t="s">
         <v>82</v>
       </c>
@@ -1831,7 +2094,7 @@
       <c r="AI25" s="26"/>
       <c r="AJ25" s="26"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:36" ht="15.75" customHeight="1">
       <c r="A26" s="24" t="s">
         <v>82</v>
       </c>
@@ -1879,7 +2142,7 @@
       <c r="AI26" s="26"/>
       <c r="AJ26" s="26"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:36" ht="15.75" customHeight="1">
       <c r="A27" s="27" t="s">
         <v>82</v>
       </c>
@@ -1927,7 +2190,7 @@
       <c r="AI27" s="26"/>
       <c r="AJ27" s="26"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:36" ht="15.75" customHeight="1">
       <c r="A28" s="24" t="s">
         <v>82</v>
       </c>
@@ -1975,7 +2238,7 @@
       <c r="AI28" s="26"/>
       <c r="AJ28" s="26"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:36" ht="15.75" customHeight="1">
       <c r="A29" s="24" t="s">
         <v>82</v>
       </c>
@@ -2023,7 +2286,7 @@
       <c r="AI29" s="26"/>
       <c r="AJ29" s="26"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:36" ht="15.75" customHeight="1">
       <c r="A30" s="27" t="s">
         <v>82</v>
       </c>
@@ -2071,7 +2334,7 @@
       <c r="AI30" s="26"/>
       <c r="AJ30" s="26"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:36" ht="15.75" customHeight="1">
       <c r="A31" s="22"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -2109,7 +2372,7 @@
       <c r="AI31" s="22"/>
       <c r="AJ31" s="22"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:36" ht="15.75" customHeight="1">
       <c r="A32" s="28" t="s">
         <v>44</v>
       </c>
@@ -2155,7 +2418,7 @@
       <c r="AI32" s="31"/>
       <c r="AJ32" s="31"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:36" ht="15.75" customHeight="1">
       <c r="A33" s="29" t="s">
         <v>99</v>
       </c>
@@ -2207,7 +2470,7 @@
       <c r="AI33" s="31"/>
       <c r="AJ33" s="31"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:36" ht="15.75" customHeight="1">
       <c r="A34" s="28" t="s">
         <v>81</v>
       </c>
@@ -2247,7 +2510,7 @@
       <c r="AI34" s="31"/>
       <c r="AJ34" s="31"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:36" ht="15.75" customHeight="1">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -2285,7 +2548,7 @@
       <c r="AI35" s="22"/>
       <c r="AJ35" s="22"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:36" ht="15.75" customHeight="1">
       <c r="A36" s="32" t="s">
         <v>44</v>
       </c>
@@ -2333,7 +2596,7 @@
       <c r="AI36" s="33"/>
       <c r="AJ36" s="33"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:36" ht="15.75" customHeight="1">
       <c r="A37" s="32" t="s">
         <v>82</v>
       </c>
@@ -2381,7 +2644,7 @@
       <c r="AI37" s="33"/>
       <c r="AJ37" s="33"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:36" ht="15.75" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>44</v>
       </c>
@@ -2425,7 +2688,7 @@
       <c r="AI38" s="33"/>
       <c r="AJ38" s="33"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:36" ht="15.75" customHeight="1">
       <c r="A39" s="32" t="s">
         <v>82</v>
       </c>
@@ -2473,7 +2736,7 @@
       <c r="AI39" s="33"/>
       <c r="AJ39" s="33"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:36" ht="15.75" customHeight="1">
       <c r="A40" s="32" t="s">
         <v>82</v>
       </c>
@@ -2521,7 +2784,7 @@
       <c r="AI40" s="33"/>
       <c r="AJ40" s="33"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:36" ht="15.75" customHeight="1">
       <c r="A41" s="32" t="s">
         <v>82</v>
       </c>
@@ -2569,7 +2832,7 @@
       <c r="AI41" s="33"/>
       <c r="AJ41" s="33"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:36" ht="15.75" customHeight="1">
       <c r="A42" s="32" t="s">
         <v>82</v>
       </c>
@@ -2617,7 +2880,7 @@
       <c r="AI42" s="33"/>
       <c r="AJ42" s="33"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:36" ht="15.75" customHeight="1">
       <c r="A43" s="32" t="s">
         <v>82</v>
       </c>
@@ -2665,7 +2928,7 @@
       <c r="AI43" s="33"/>
       <c r="AJ43" s="33"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:36" ht="15.75" customHeight="1">
       <c r="A44" s="36" t="s">
         <v>81</v>
       </c>
@@ -2707,7 +2970,7 @@
       <c r="AI44" s="33"/>
       <c r="AJ44" s="33"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:36" ht="15.75" customHeight="1">
       <c r="A45" s="36" t="s">
         <v>81</v>
       </c>
@@ -2750,37 +3013,35 @@
       <c r="AJ45" s="33"/>
     </row>
   </sheetData>
-  <dataValidations>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="J2:J45">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.43"/>
-    <col customWidth="1" min="2" max="6" width="14.43"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2823,7 +3084,7 @@
       <c r="V1" s="17"/>
       <c r="W1" s="17"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>67</v>
       </c>
@@ -2854,7 +3115,7 @@
       <c r="V2" s="17"/>
       <c r="W2" s="17"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>67</v>
       </c>
@@ -2885,7 +3146,7 @@
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2910,7 +3171,7 @@
       <c r="V4" s="17"/>
       <c r="W4" s="17"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2935,7 +3196,7 @@
       <c r="V5" s="17"/>
       <c r="W5" s="17"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2960,7 +3221,7 @@
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2985,7 +3246,7 @@
       <c r="V7" s="17"/>
       <c r="W7" s="17"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -3010,7 +3271,7 @@
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1">
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -3018,7 +3279,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1">
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -3026,7 +3287,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1">
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -3034,7 +3295,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1">
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -3042,7 +3303,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1">
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -3050,7 +3311,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1">
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -3058,7 +3319,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1">
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -3066,7 +3327,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1">
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -3074,7 +3335,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="4:9" ht="15.75" customHeight="1">
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -3082,7 +3343,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="4:9" ht="15.75" customHeight="1">
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -3090,7 +3351,7 @@
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="4:9" ht="15.75" customHeight="1">
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -3098,7 +3359,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="4:9" ht="15.75" customHeight="1">
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -3106,7 +3367,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="4:9" ht="15.75" customHeight="1">
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -3114,7 +3375,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="4:9" ht="15.75" customHeight="1">
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -3122,7 +3383,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="4:9" ht="15.75" customHeight="1">
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -3130,7 +3391,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="4:9" ht="15.75" customHeight="1">
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -3138,7 +3399,7 @@
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="4:9" ht="15.75" customHeight="1">
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -3146,7 +3407,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="4:9" ht="15.75" customHeight="1">
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -3154,7 +3415,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="4:9" ht="15.75" customHeight="1">
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -3162,7 +3423,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="4:9" ht="15.75" customHeight="1">
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -3170,7 +3431,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="4:9" ht="15.75" customHeight="1">
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -3178,7 +3439,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="4:9" ht="15.75" customHeight="1">
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -3186,7 +3447,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="4:9" ht="15.75" customHeight="1">
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -3194,7 +3455,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="4:9" ht="15.75" customHeight="1">
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
@@ -3202,7 +3463,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="4:9" ht="15.75" customHeight="1">
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
@@ -3210,7 +3471,7 @@
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="4:9" ht="15.75" customHeight="1">
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
@@ -3218,7 +3479,7 @@
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="4:9" ht="15.75" customHeight="1">
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -3226,7 +3487,7 @@
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="4:9" ht="15.75" customHeight="1">
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
@@ -3234,7 +3495,7 @@
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="4:9" ht="15.75" customHeight="1">
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
@@ -3242,7 +3503,7 @@
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="4:9" ht="15.75" customHeight="1">
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
@@ -3250,7 +3511,7 @@
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="4:9" ht="15.75" customHeight="1">
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -3258,7 +3519,7 @@
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="4:9" ht="15.75" customHeight="1">
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
@@ -3266,7 +3527,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="4:9" ht="15.75" customHeight="1">
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
@@ -3274,7 +3535,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="4:9" ht="15.75" customHeight="1">
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
@@ -3282,7 +3543,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="4:9" ht="15.75" customHeight="1">
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
@@ -3290,7 +3551,7 @@
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="4:9" ht="15.75" customHeight="1">
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
@@ -3298,7 +3559,7 @@
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="4:9" ht="15.75" customHeight="1">
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
@@ -3306,7 +3567,7 @@
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="4:9" ht="15.75" customHeight="1">
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
@@ -3314,7 +3575,7 @@
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="4:9" ht="15.75" customHeight="1">
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
@@ -3322,7 +3583,7 @@
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="4:9" ht="15.75" customHeight="1">
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
@@ -3330,7 +3591,7 @@
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="4:9" ht="15.75" customHeight="1">
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
@@ -3338,7 +3599,7 @@
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="4:9" ht="15.75" customHeight="1">
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
@@ -3346,7 +3607,7 @@
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="4:9" ht="15.75" customHeight="1">
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
@@ -3354,7 +3615,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="4:9" ht="15.75" customHeight="1">
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
@@ -3362,7 +3623,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="4:9" ht="15.75" customHeight="1">
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
@@ -3370,7 +3631,7 @@
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="4:9" ht="15.75" customHeight="1">
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
@@ -3378,7 +3639,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="4:9" ht="15.75" customHeight="1">
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -3386,7 +3647,7 @@
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="4:9" ht="15.75" customHeight="1">
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
@@ -3394,7 +3655,7 @@
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="4:9" ht="15.75" customHeight="1">
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
@@ -3402,7 +3663,7 @@
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="4:9" ht="15.75" customHeight="1">
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
@@ -3410,7 +3671,7 @@
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="4:9" ht="15.75" customHeight="1">
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
@@ -3418,7 +3679,7 @@
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="4:9" ht="15.75" customHeight="1">
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -3426,7 +3687,7 @@
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="4:9" ht="15.75" customHeight="1">
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
@@ -3434,7 +3695,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="4:9" ht="15.75" customHeight="1">
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
@@ -3442,7 +3703,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="4:9" ht="15.75" customHeight="1">
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
@@ -3450,7 +3711,7 @@
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="4:9" ht="15.75" customHeight="1">
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
@@ -3458,7 +3719,7 @@
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="4:9" ht="15.75" customHeight="1">
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
@@ -3466,7 +3727,7 @@
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="4:9" ht="15.75" customHeight="1">
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
@@ -3474,7 +3735,7 @@
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="4:9" ht="15.75" customHeight="1">
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
@@ -3482,7 +3743,7 @@
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="4:9" ht="15.75" customHeight="1">
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
@@ -3490,7 +3751,7 @@
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="4:9" ht="15.75" customHeight="1">
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
@@ -3498,7 +3759,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="4:9" ht="15.75" customHeight="1">
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
@@ -3506,7 +3767,7 @@
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="4:9" ht="15.75" customHeight="1">
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
@@ -3514,7 +3775,7 @@
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="4:9" ht="15.75" customHeight="1">
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
       <c r="F72" s="17"/>
@@ -3522,7 +3783,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="4:9" ht="15.75" customHeight="1">
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="17"/>
@@ -3530,7 +3791,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="4:9" ht="15.75" customHeight="1">
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
       <c r="F74" s="17"/>
@@ -3538,7 +3799,7 @@
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="4:9" ht="15.75" customHeight="1">
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
@@ -3546,7 +3807,7 @@
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="4:9" ht="15.75" customHeight="1">
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
@@ -3554,7 +3815,7 @@
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="4:9" ht="15.75" customHeight="1">
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
@@ -3562,7 +3823,7 @@
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="4:9" ht="15.75" customHeight="1">
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
@@ -3570,7 +3831,7 @@
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="4:9" ht="15.75" customHeight="1">
       <c r="D79" s="17"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
@@ -3578,7 +3839,7 @@
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="4:9" ht="15.75" customHeight="1">
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
@@ -3586,7 +3847,7 @@
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="4:9" ht="15.75" customHeight="1">
       <c r="D81" s="17"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
@@ -3594,7 +3855,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="4:9" ht="15.75" customHeight="1">
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
@@ -3602,7 +3863,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="4:9" ht="15.75" customHeight="1">
       <c r="D83" s="17"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
@@ -3610,7 +3871,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="4:9" ht="15.75" customHeight="1">
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
@@ -3618,7 +3879,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="4:9" ht="15.75" customHeight="1">
       <c r="D85" s="17"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
@@ -3626,7 +3887,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="4:9" ht="15.75" customHeight="1">
       <c r="D86" s="17"/>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
@@ -3634,7 +3895,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="4:9" ht="15.75" customHeight="1">
       <c r="D87" s="17"/>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
@@ -3642,7 +3903,7 @@
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="4:9" ht="15.75" customHeight="1">
       <c r="D88" s="17"/>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
@@ -3650,7 +3911,7 @@
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="4:9" ht="15.75" customHeight="1">
       <c r="D89" s="17"/>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
@@ -3658,7 +3919,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="4:9" ht="15.75" customHeight="1">
       <c r="D90" s="17"/>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
@@ -3666,7 +3927,7 @@
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="4:9" ht="15.75" customHeight="1">
       <c r="D91" s="17"/>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
@@ -3674,7 +3935,7 @@
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="4:9" ht="15.75" customHeight="1">
       <c r="D92" s="17"/>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
@@ -3682,7 +3943,7 @@
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="4:9" ht="15.75" customHeight="1">
       <c r="D93" s="17"/>
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
@@ -3690,7 +3951,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="4:9" ht="15.75" customHeight="1">
       <c r="D94" s="17"/>
       <c r="E94" s="17"/>
       <c r="F94" s="17"/>
@@ -3698,7 +3959,7 @@
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="4:9" ht="15.75" customHeight="1">
       <c r="D95" s="17"/>
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
@@ -3706,7 +3967,7 @@
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="4:9" ht="15.75" customHeight="1">
       <c r="D96" s="17"/>
       <c r="E96" s="17"/>
       <c r="F96" s="17"/>
@@ -3714,7 +3975,7 @@
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="4:9" ht="15.75" customHeight="1">
       <c r="D97" s="17"/>
       <c r="E97" s="17"/>
       <c r="F97" s="17"/>
@@ -3722,7 +3983,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="4:9" ht="15.75" customHeight="1">
       <c r="D98" s="17"/>
       <c r="E98" s="17"/>
       <c r="F98" s="17"/>
@@ -3730,7 +3991,7 @@
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="4:9" ht="15.75" customHeight="1">
       <c r="D99" s="17"/>
       <c r="E99" s="17"/>
       <c r="F99" s="17"/>
@@ -3738,7 +3999,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="4:9" ht="15.75" customHeight="1">
       <c r="D100" s="17"/>
       <c r="E100" s="17"/>
       <c r="F100" s="17"/>
@@ -3746,7 +4007,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="4:9" ht="15.75" customHeight="1">
       <c r="D101" s="17"/>
       <c r="E101" s="17"/>
       <c r="F101" s="17"/>
@@ -3754,7 +4015,7 @@
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="4:9" ht="15.75" customHeight="1">
       <c r="D102" s="17"/>
       <c r="E102" s="17"/>
       <c r="F102" s="17"/>
@@ -3762,7 +4023,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="4:9" ht="15.75" customHeight="1">
       <c r="D103" s="17"/>
       <c r="E103" s="17"/>
       <c r="F103" s="17"/>
@@ -3770,7 +4031,7 @@
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="4:9" ht="15.75" customHeight="1">
       <c r="D104" s="17"/>
       <c r="E104" s="17"/>
       <c r="F104" s="17"/>
@@ -3778,7 +4039,7 @@
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="4:9" ht="15.75" customHeight="1">
       <c r="D105" s="17"/>
       <c r="E105" s="17"/>
       <c r="F105" s="17"/>
@@ -3786,7 +4047,7 @@
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="4:9" ht="15.75" customHeight="1">
       <c r="D106" s="17"/>
       <c r="E106" s="17"/>
       <c r="F106" s="17"/>
@@ -3794,7 +4055,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="4:9" ht="15.75" customHeight="1">
       <c r="D107" s="17"/>
       <c r="E107" s="17"/>
       <c r="F107" s="17"/>
@@ -3802,7 +4063,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="4:9" ht="15.75" customHeight="1">
       <c r="D108" s="17"/>
       <c r="E108" s="17"/>
       <c r="F108" s="17"/>
@@ -3810,7 +4071,7 @@
       <c r="H108" s="17"/>
       <c r="I108" s="17"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="4:9" ht="15.75" customHeight="1">
       <c r="D109" s="17"/>
       <c r="E109" s="17"/>
       <c r="F109" s="17"/>
@@ -3818,7 +4079,7 @@
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="4:9" ht="15.75" customHeight="1">
       <c r="D110" s="17"/>
       <c r="E110" s="17"/>
       <c r="F110" s="17"/>
@@ -3826,7 +4087,7 @@
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="4:9" ht="15.75" customHeight="1">
       <c r="D111" s="17"/>
       <c r="E111" s="17"/>
       <c r="F111" s="17"/>
@@ -3834,7 +4095,7 @@
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="4:9" ht="15.75" customHeight="1">
       <c r="D112" s="17"/>
       <c r="E112" s="17"/>
       <c r="F112" s="17"/>
@@ -3842,7 +4103,7 @@
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="4:9" ht="15.75" customHeight="1">
       <c r="D113" s="17"/>
       <c r="E113" s="17"/>
       <c r="F113" s="17"/>
@@ -3850,7 +4111,7 @@
       <c r="H113" s="17"/>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="4:9" ht="15.75" customHeight="1">
       <c r="D114" s="17"/>
       <c r="E114" s="17"/>
       <c r="F114" s="17"/>
@@ -3858,7 +4119,7 @@
       <c r="H114" s="17"/>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="4:9" ht="15.75" customHeight="1">
       <c r="D115" s="17"/>
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
@@ -3866,7 +4127,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="4:9" ht="15.75" customHeight="1">
       <c r="D116" s="17"/>
       <c r="E116" s="17"/>
       <c r="F116" s="17"/>
@@ -3874,7 +4135,7 @@
       <c r="H116" s="17"/>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="4:9" ht="15.75" customHeight="1">
       <c r="D117" s="17"/>
       <c r="E117" s="17"/>
       <c r="F117" s="17"/>
@@ -3882,7 +4143,7 @@
       <c r="H117" s="17"/>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="4:9" ht="15.75" customHeight="1">
       <c r="D118" s="17"/>
       <c r="E118" s="17"/>
       <c r="F118" s="17"/>
@@ -3890,7 +4151,7 @@
       <c r="H118" s="17"/>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="4:9" ht="15.75" customHeight="1">
       <c r="D119" s="17"/>
       <c r="E119" s="17"/>
       <c r="F119" s="17"/>
@@ -3898,7 +4159,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="4:9" ht="15.75" customHeight="1">
       <c r="D120" s="17"/>
       <c r="E120" s="17"/>
       <c r="F120" s="17"/>
@@ -3906,7 +4167,7 @@
       <c r="H120" s="17"/>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="4:9" ht="15.75" customHeight="1">
       <c r="D121" s="17"/>
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
@@ -3914,7 +4175,7 @@
       <c r="H121" s="17"/>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="4:9" ht="15.75" customHeight="1">
       <c r="D122" s="17"/>
       <c r="E122" s="17"/>
       <c r="F122" s="17"/>
@@ -3922,7 +4183,7 @@
       <c r="H122" s="17"/>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="4:9" ht="15.75" customHeight="1">
       <c r="D123" s="17"/>
       <c r="E123" s="17"/>
       <c r="F123" s="17"/>
@@ -3930,7 +4191,7 @@
       <c r="H123" s="17"/>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="4:9" ht="15.75" customHeight="1">
       <c r="D124" s="17"/>
       <c r="E124" s="17"/>
       <c r="F124" s="17"/>
@@ -3938,7 +4199,7 @@
       <c r="H124" s="17"/>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="4:9" ht="15.75" customHeight="1">
       <c r="D125" s="17"/>
       <c r="E125" s="17"/>
       <c r="F125" s="17"/>
@@ -3946,7 +4207,7 @@
       <c r="H125" s="17"/>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="4:9" ht="15.75" customHeight="1">
       <c r="D126" s="17"/>
       <c r="E126" s="17"/>
       <c r="F126" s="17"/>
@@ -3954,7 +4215,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="4:9" ht="15.75" customHeight="1">
       <c r="D127" s="17"/>
       <c r="E127" s="17"/>
       <c r="F127" s="17"/>
@@ -3962,7 +4223,7 @@
       <c r="H127" s="17"/>
       <c r="I127" s="17"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="4:9" ht="15.75" customHeight="1">
       <c r="D128" s="17"/>
       <c r="E128" s="17"/>
       <c r="F128" s="17"/>
@@ -3970,7 +4231,7 @@
       <c r="H128" s="17"/>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="4:9" ht="15.75" customHeight="1">
       <c r="D129" s="17"/>
       <c r="E129" s="17"/>
       <c r="F129" s="17"/>
@@ -3978,7 +4239,7 @@
       <c r="H129" s="17"/>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="4:9" ht="15.75" customHeight="1">
       <c r="D130" s="17"/>
       <c r="E130" s="17"/>
       <c r="F130" s="17"/>
@@ -3986,7 +4247,7 @@
       <c r="H130" s="17"/>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="4:9" ht="15.75" customHeight="1">
       <c r="D131" s="17"/>
       <c r="E131" s="17"/>
       <c r="F131" s="17"/>
@@ -3994,7 +4255,7 @@
       <c r="H131" s="17"/>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="4:9" ht="15.75" customHeight="1">
       <c r="D132" s="17"/>
       <c r="E132" s="17"/>
       <c r="F132" s="17"/>
@@ -4002,7 +4263,7 @@
       <c r="H132" s="17"/>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="4:9" ht="15.75" customHeight="1">
       <c r="D133" s="17"/>
       <c r="E133" s="17"/>
       <c r="F133" s="17"/>
@@ -4010,7 +4271,7 @@
       <c r="H133" s="17"/>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="4:9" ht="15.75" customHeight="1">
       <c r="D134" s="17"/>
       <c r="E134" s="17"/>
       <c r="F134" s="17"/>
@@ -4018,7 +4279,7 @@
       <c r="H134" s="17"/>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="4:9" ht="15.75" customHeight="1">
       <c r="D135" s="17"/>
       <c r="E135" s="17"/>
       <c r="F135" s="17"/>
@@ -4026,7 +4287,7 @@
       <c r="H135" s="17"/>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="4:9" ht="15.75" customHeight="1">
       <c r="D136" s="17"/>
       <c r="E136" s="17"/>
       <c r="F136" s="17"/>
@@ -4034,7 +4295,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="4:9" ht="15.75" customHeight="1">
       <c r="D137" s="17"/>
       <c r="E137" s="17"/>
       <c r="F137" s="17"/>
@@ -4042,7 +4303,7 @@
       <c r="H137" s="17"/>
       <c r="I137" s="17"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="4:9" ht="15.75" customHeight="1">
       <c r="D138" s="17"/>
       <c r="E138" s="17"/>
       <c r="F138" s="17"/>
@@ -4050,7 +4311,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="4:9" ht="15.75" customHeight="1">
       <c r="D139" s="17"/>
       <c r="E139" s="17"/>
       <c r="F139" s="17"/>
@@ -4058,7 +4319,7 @@
       <c r="H139" s="17"/>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="4:9" ht="15.75" customHeight="1">
       <c r="D140" s="17"/>
       <c r="E140" s="17"/>
       <c r="F140" s="17"/>
@@ -4066,7 +4327,7 @@
       <c r="H140" s="17"/>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="4:9" ht="15.75" customHeight="1">
       <c r="D141" s="17"/>
       <c r="E141" s="17"/>
       <c r="F141" s="17"/>
@@ -4074,7 +4335,7 @@
       <c r="H141" s="17"/>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="4:9" ht="15.75" customHeight="1">
       <c r="D142" s="17"/>
       <c r="E142" s="17"/>
       <c r="F142" s="17"/>
@@ -4082,7 +4343,7 @@
       <c r="H142" s="17"/>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="4:9" ht="15.75" customHeight="1">
       <c r="D143" s="17"/>
       <c r="E143" s="17"/>
       <c r="F143" s="17"/>
@@ -4090,7 +4351,7 @@
       <c r="H143" s="17"/>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="4:9" ht="15.75" customHeight="1">
       <c r="D144" s="17"/>
       <c r="E144" s="17"/>
       <c r="F144" s="17"/>
@@ -4098,7 +4359,7 @@
       <c r="H144" s="17"/>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="4:9" ht="15.75" customHeight="1">
       <c r="D145" s="17"/>
       <c r="E145" s="17"/>
       <c r="F145" s="17"/>
@@ -4106,7 +4367,7 @@
       <c r="H145" s="17"/>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="4:9" ht="15.75" customHeight="1">
       <c r="D146" s="17"/>
       <c r="E146" s="17"/>
       <c r="F146" s="17"/>
@@ -4114,7 +4375,7 @@
       <c r="H146" s="17"/>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="4:9" ht="15.75" customHeight="1">
       <c r="D147" s="17"/>
       <c r="E147" s="17"/>
       <c r="F147" s="17"/>
@@ -4122,7 +4383,7 @@
       <c r="H147" s="17"/>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="4:9" ht="15.75" customHeight="1">
       <c r="D148" s="17"/>
       <c r="E148" s="17"/>
       <c r="F148" s="17"/>
@@ -4130,7 +4391,7 @@
       <c r="H148" s="17"/>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="4:9" ht="15.75" customHeight="1">
       <c r="D149" s="17"/>
       <c r="E149" s="17"/>
       <c r="F149" s="17"/>
@@ -4138,7 +4399,7 @@
       <c r="H149" s="17"/>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="4:9" ht="15.75" customHeight="1">
       <c r="D150" s="17"/>
       <c r="E150" s="17"/>
       <c r="F150" s="17"/>
@@ -4146,7 +4407,7 @@
       <c r="H150" s="17"/>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="4:9" ht="15.75" customHeight="1">
       <c r="D151" s="17"/>
       <c r="E151" s="17"/>
       <c r="F151" s="17"/>
@@ -4154,7 +4415,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="4:9" ht="15.75" customHeight="1">
       <c r="D152" s="17"/>
       <c r="E152" s="17"/>
       <c r="F152" s="17"/>
@@ -4162,7 +4423,7 @@
       <c r="H152" s="17"/>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="4:9" ht="15.75" customHeight="1">
       <c r="D153" s="17"/>
       <c r="E153" s="17"/>
       <c r="F153" s="17"/>
@@ -4170,7 +4431,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="4:9" ht="15.75" customHeight="1">
       <c r="D154" s="17"/>
       <c r="E154" s="17"/>
       <c r="F154" s="17"/>
@@ -4178,7 +4439,7 @@
       <c r="H154" s="17"/>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="4:9" ht="15.75" customHeight="1">
       <c r="D155" s="17"/>
       <c r="E155" s="17"/>
       <c r="F155" s="17"/>
@@ -4186,7 +4447,7 @@
       <c r="H155" s="17"/>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="4:9" ht="15.75" customHeight="1">
       <c r="D156" s="17"/>
       <c r="E156" s="17"/>
       <c r="F156" s="17"/>
@@ -4194,7 +4455,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="4:9" ht="15.75" customHeight="1">
       <c r="D157" s="17"/>
       <c r="E157" s="17"/>
       <c r="F157" s="17"/>
@@ -4202,7 +4463,7 @@
       <c r="H157" s="17"/>
       <c r="I157" s="17"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="4:9" ht="15.75" customHeight="1">
       <c r="D158" s="17"/>
       <c r="E158" s="17"/>
       <c r="F158" s="17"/>
@@ -4210,7 +4471,7 @@
       <c r="H158" s="17"/>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="4:9" ht="15.75" customHeight="1">
       <c r="D159" s="17"/>
       <c r="E159" s="17"/>
       <c r="F159" s="17"/>
@@ -4218,7 +4479,7 @@
       <c r="H159" s="17"/>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="4:9" ht="15.75" customHeight="1">
       <c r="D160" s="17"/>
       <c r="E160" s="17"/>
       <c r="F160" s="17"/>
@@ -4226,7 +4487,7 @@
       <c r="H160" s="17"/>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="4:9" ht="15.75" customHeight="1">
       <c r="D161" s="17"/>
       <c r="E161" s="17"/>
       <c r="F161" s="17"/>
@@ -4234,7 +4495,7 @@
       <c r="H161" s="17"/>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="4:9" ht="15.75" customHeight="1">
       <c r="D162" s="17"/>
       <c r="E162" s="17"/>
       <c r="F162" s="17"/>
@@ -4242,7 +4503,7 @@
       <c r="H162" s="17"/>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="4:9" ht="15.75" customHeight="1">
       <c r="D163" s="17"/>
       <c r="E163" s="17"/>
       <c r="F163" s="17"/>
@@ -4250,7 +4511,7 @@
       <c r="H163" s="17"/>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="4:9" ht="15.75" customHeight="1">
       <c r="D164" s="17"/>
       <c r="E164" s="17"/>
       <c r="F164" s="17"/>
@@ -4258,7 +4519,7 @@
       <c r="H164" s="17"/>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="4:9" ht="15.75" customHeight="1">
       <c r="D165" s="17"/>
       <c r="E165" s="17"/>
       <c r="F165" s="17"/>
@@ -4266,7 +4527,7 @@
       <c r="H165" s="17"/>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="4:9" ht="15.75" customHeight="1">
       <c r="D166" s="17"/>
       <c r="E166" s="17"/>
       <c r="F166" s="17"/>
@@ -4274,7 +4535,7 @@
       <c r="H166" s="17"/>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="4:9" ht="15.75" customHeight="1">
       <c r="D167" s="17"/>
       <c r="E167" s="17"/>
       <c r="F167" s="17"/>
@@ -4282,7 +4543,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="4:9" ht="15.75" customHeight="1">
       <c r="D168" s="17"/>
       <c r="E168" s="17"/>
       <c r="F168" s="17"/>
@@ -4290,7 +4551,7 @@
       <c r="H168" s="17"/>
       <c r="I168" s="17"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="4:9" ht="15.75" customHeight="1">
       <c r="D169" s="17"/>
       <c r="E169" s="17"/>
       <c r="F169" s="17"/>
@@ -4298,7 +4559,7 @@
       <c r="H169" s="17"/>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="4:9" ht="15.75" customHeight="1">
       <c r="D170" s="17"/>
       <c r="E170" s="17"/>
       <c r="F170" s="17"/>
@@ -4306,7 +4567,7 @@
       <c r="H170" s="17"/>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="4:9" ht="15.75" customHeight="1">
       <c r="D171" s="17"/>
       <c r="E171" s="17"/>
       <c r="F171" s="17"/>
@@ -4314,7 +4575,7 @@
       <c r="H171" s="17"/>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="4:9" ht="15.75" customHeight="1">
       <c r="D172" s="17"/>
       <c r="E172" s="17"/>
       <c r="F172" s="17"/>
@@ -4322,7 +4583,7 @@
       <c r="H172" s="17"/>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="4:9" ht="15.75" customHeight="1">
       <c r="D173" s="17"/>
       <c r="E173" s="17"/>
       <c r="F173" s="17"/>
@@ -4330,7 +4591,7 @@
       <c r="H173" s="17"/>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="4:9" ht="15.75" customHeight="1">
       <c r="D174" s="17"/>
       <c r="E174" s="17"/>
       <c r="F174" s="17"/>
@@ -4338,7 +4599,7 @@
       <c r="H174" s="17"/>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="4:9" ht="15.75" customHeight="1">
       <c r="D175" s="17"/>
       <c r="E175" s="17"/>
       <c r="F175" s="17"/>
@@ -4346,7 +4607,7 @@
       <c r="H175" s="17"/>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="4:9" ht="15.75" customHeight="1">
       <c r="D176" s="17"/>
       <c r="E176" s="17"/>
       <c r="F176" s="17"/>
@@ -4354,7 +4615,7 @@
       <c r="H176" s="17"/>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="4:9" ht="15.75" customHeight="1">
       <c r="D177" s="17"/>
       <c r="E177" s="17"/>
       <c r="F177" s="17"/>
@@ -4362,7 +4623,7 @@
       <c r="H177" s="17"/>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="4:9" ht="15.75" customHeight="1">
       <c r="D178" s="17"/>
       <c r="E178" s="17"/>
       <c r="F178" s="17"/>
@@ -4370,7 +4631,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="4:9" ht="15.75" customHeight="1">
       <c r="D179" s="17"/>
       <c r="E179" s="17"/>
       <c r="F179" s="17"/>
@@ -4378,7 +4639,7 @@
       <c r="H179" s="17"/>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="4:9" ht="15.75" customHeight="1">
       <c r="D180" s="17"/>
       <c r="E180" s="17"/>
       <c r="F180" s="17"/>
@@ -4386,7 +4647,7 @@
       <c r="H180" s="17"/>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="4:9" ht="15.75" customHeight="1">
       <c r="D181" s="17"/>
       <c r="E181" s="17"/>
       <c r="F181" s="17"/>
@@ -4394,7 +4655,7 @@
       <c r="H181" s="17"/>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="4:9" ht="15.75" customHeight="1">
       <c r="D182" s="17"/>
       <c r="E182" s="17"/>
       <c r="F182" s="17"/>
@@ -4402,7 +4663,7 @@
       <c r="H182" s="17"/>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="4:9" ht="15.75" customHeight="1">
       <c r="D183" s="17"/>
       <c r="E183" s="17"/>
       <c r="F183" s="17"/>
@@ -4410,7 +4671,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="4:9" ht="15.75" customHeight="1">
       <c r="D184" s="17"/>
       <c r="E184" s="17"/>
       <c r="F184" s="17"/>
@@ -4418,7 +4679,7 @@
       <c r="H184" s="17"/>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="4:9" ht="15.75" customHeight="1">
       <c r="D185" s="17"/>
       <c r="E185" s="17"/>
       <c r="F185" s="17"/>
@@ -4426,7 +4687,7 @@
       <c r="H185" s="17"/>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="4:9" ht="15.75" customHeight="1">
       <c r="D186" s="17"/>
       <c r="E186" s="17"/>
       <c r="F186" s="17"/>
@@ -4434,7 +4695,7 @@
       <c r="H186" s="17"/>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="4:9" ht="15.75" customHeight="1">
       <c r="D187" s="17"/>
       <c r="E187" s="17"/>
       <c r="F187" s="17"/>
@@ -4442,7 +4703,7 @@
       <c r="H187" s="17"/>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="4:9" ht="15.75" customHeight="1">
       <c r="D188" s="17"/>
       <c r="E188" s="17"/>
       <c r="F188" s="17"/>
@@ -4450,7 +4711,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="4:9" ht="15.75" customHeight="1">
       <c r="D189" s="17"/>
       <c r="E189" s="17"/>
       <c r="F189" s="17"/>
@@ -4458,7 +4719,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="4:9" ht="15.75" customHeight="1">
       <c r="D190" s="17"/>
       <c r="E190" s="17"/>
       <c r="F190" s="17"/>
@@ -4466,7 +4727,7 @@
       <c r="H190" s="17"/>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="4:9" ht="15.75" customHeight="1">
       <c r="D191" s="17"/>
       <c r="E191" s="17"/>
       <c r="F191" s="17"/>
@@ -4474,7 +4735,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="4:9" ht="15.75" customHeight="1">
       <c r="D192" s="17"/>
       <c r="E192" s="17"/>
       <c r="F192" s="17"/>
@@ -4482,7 +4743,7 @@
       <c r="H192" s="17"/>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="4:9" ht="15.75" customHeight="1">
       <c r="D193" s="17"/>
       <c r="E193" s="17"/>
       <c r="F193" s="17"/>
@@ -4490,7 +4751,7 @@
       <c r="H193" s="17"/>
       <c r="I193" s="17"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="4:9" ht="15.75" customHeight="1">
       <c r="D194" s="17"/>
       <c r="E194" s="17"/>
       <c r="F194" s="17"/>
@@ -4498,7 +4759,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="4:9" ht="15.75" customHeight="1">
       <c r="D195" s="17"/>
       <c r="E195" s="17"/>
       <c r="F195" s="17"/>
@@ -4506,7 +4767,7 @@
       <c r="H195" s="17"/>
       <c r="I195" s="17"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="4:9" ht="15.75" customHeight="1">
       <c r="D196" s="17"/>
       <c r="E196" s="17"/>
       <c r="F196" s="17"/>
@@ -4514,7 +4775,7 @@
       <c r="H196" s="17"/>
       <c r="I196" s="17"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="4:9" ht="15.75" customHeight="1">
       <c r="D197" s="17"/>
       <c r="E197" s="17"/>
       <c r="F197" s="17"/>
@@ -4522,7 +4783,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="4:9" ht="15.75" customHeight="1">
       <c r="D198" s="17"/>
       <c r="E198" s="17"/>
       <c r="F198" s="17"/>
@@ -4530,7 +4791,7 @@
       <c r="H198" s="17"/>
       <c r="I198" s="17"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="4:9" ht="15.75" customHeight="1">
       <c r="D199" s="17"/>
       <c r="E199" s="17"/>
       <c r="F199" s="17"/>
@@ -4538,7 +4799,7 @@
       <c r="H199" s="17"/>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="4:9" ht="15.75" customHeight="1">
       <c r="D200" s="17"/>
       <c r="E200" s="17"/>
       <c r="F200" s="17"/>
@@ -4546,7 +4807,7 @@
       <c r="H200" s="17"/>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="4:9" ht="15.75" customHeight="1">
       <c r="D201" s="17"/>
       <c r="E201" s="17"/>
       <c r="F201" s="17"/>
@@ -4554,7 +4815,7 @@
       <c r="H201" s="17"/>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="4:9" ht="15.75" customHeight="1">
       <c r="D202" s="17"/>
       <c r="E202" s="17"/>
       <c r="F202" s="17"/>
@@ -4562,7 +4823,7 @@
       <c r="H202" s="17"/>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="4:9" ht="15.75" customHeight="1">
       <c r="D203" s="17"/>
       <c r="E203" s="17"/>
       <c r="F203" s="17"/>
@@ -4570,7 +4831,7 @@
       <c r="H203" s="17"/>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="4:9" ht="15.75" customHeight="1">
       <c r="D204" s="17"/>
       <c r="E204" s="17"/>
       <c r="F204" s="17"/>
@@ -4578,7 +4839,7 @@
       <c r="H204" s="17"/>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="4:9" ht="15.75" customHeight="1">
       <c r="D205" s="17"/>
       <c r="E205" s="17"/>
       <c r="F205" s="17"/>
@@ -4586,7 +4847,7 @@
       <c r="H205" s="17"/>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="4:9" ht="15.75" customHeight="1">
       <c r="D206" s="17"/>
       <c r="E206" s="17"/>
       <c r="F206" s="17"/>
@@ -4594,7 +4855,7 @@
       <c r="H206" s="17"/>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="4:9" ht="15.75" customHeight="1">
       <c r="D207" s="17"/>
       <c r="E207" s="17"/>
       <c r="F207" s="17"/>
@@ -4602,7 +4863,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="4:9" ht="15.75" customHeight="1">
       <c r="D208" s="17"/>
       <c r="E208" s="17"/>
       <c r="F208" s="17"/>
@@ -4610,7 +4871,7 @@
       <c r="H208" s="17"/>
       <c r="I208" s="17"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="4:9" ht="15.75" customHeight="1">
       <c r="D209" s="17"/>
       <c r="E209" s="17"/>
       <c r="F209" s="17"/>
@@ -4618,7 +4879,7 @@
       <c r="H209" s="17"/>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="4:9" ht="15.75" customHeight="1">
       <c r="D210" s="17"/>
       <c r="E210" s="17"/>
       <c r="F210" s="17"/>
@@ -4626,7 +4887,7 @@
       <c r="H210" s="17"/>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="4:9" ht="15.75" customHeight="1">
       <c r="D211" s="17"/>
       <c r="E211" s="17"/>
       <c r="F211" s="17"/>
@@ -4634,7 +4895,7 @@
       <c r="H211" s="17"/>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="4:9" ht="15.75" customHeight="1">
       <c r="D212" s="17"/>
       <c r="E212" s="17"/>
       <c r="F212" s="17"/>
@@ -4642,7 +4903,7 @@
       <c r="H212" s="17"/>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="4:9" ht="15.75" customHeight="1">
       <c r="D213" s="17"/>
       <c r="E213" s="17"/>
       <c r="F213" s="17"/>
@@ -4650,7 +4911,7 @@
       <c r="H213" s="17"/>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="4:9" ht="15.75" customHeight="1">
       <c r="D214" s="17"/>
       <c r="E214" s="17"/>
       <c r="F214" s="17"/>
@@ -4658,7 +4919,7 @@
       <c r="H214" s="17"/>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="4:9" ht="15.75" customHeight="1">
       <c r="D215" s="17"/>
       <c r="E215" s="17"/>
       <c r="F215" s="17"/>
@@ -4666,7 +4927,7 @@
       <c r="H215" s="17"/>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="4:9" ht="15.75" customHeight="1">
       <c r="D216" s="17"/>
       <c r="E216" s="17"/>
       <c r="F216" s="17"/>
@@ -4674,7 +4935,7 @@
       <c r="H216" s="17"/>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="4:9" ht="15.75" customHeight="1">
       <c r="D217" s="17"/>
       <c r="E217" s="17"/>
       <c r="F217" s="17"/>
@@ -4682,7 +4943,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="4:9" ht="15.75" customHeight="1">
       <c r="D218" s="17"/>
       <c r="E218" s="17"/>
       <c r="F218" s="17"/>
@@ -4690,7 +4951,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="4:9" ht="15.75" customHeight="1">
       <c r="D219" s="17"/>
       <c r="E219" s="17"/>
       <c r="F219" s="17"/>
@@ -4698,7 +4959,7 @@
       <c r="H219" s="17"/>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="4:9" ht="15.75" customHeight="1">
       <c r="D220" s="17"/>
       <c r="E220" s="17"/>
       <c r="F220" s="17"/>
@@ -4706,10 +4967,10 @@
       <c r="H220" s="17"/>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="4:9" ht="15.75" customHeight="1"/>
+    <row r="222" spans="4:9" ht="15.75" customHeight="1"/>
+    <row r="223" spans="4:9" ht="15.75" customHeight="1"/>
+    <row r="224" spans="4:9" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -5487,34 +5748,32 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="2" width="14.43"/>
-    <col customWidth="1" min="3" max="3" width="24.71"/>
-    <col customWidth="1" min="4" max="6" width="14.43"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5556,7 +5815,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -5564,8 +5823,8 @@
         <v>37</v>
       </c>
       <c r="C2" s="9">
-        <f>NOW()</f>
-        <v>43773.55147</v>
+        <f ca="1">NOW()</f>
+        <v>44135.521256828702</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>45</v>
@@ -5597,7 +5856,7 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -5625,7 +5884,7 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -5653,7 +5912,7 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5681,7 +5940,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -5709,7 +5968,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -5737,7 +5996,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -5765,7 +6024,7 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -5793,7 +6052,7 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -5821,7 +6080,7 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -5849,7 +6108,7 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -5877,7 +6136,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -5905,7 +6164,7 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -5933,7 +6192,7 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -5961,7 +6220,7 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -5989,7 +6248,7 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -6017,7 +6276,7 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -6045,7 +6304,7 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -6073,7 +6332,7 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -6101,7 +6360,7 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -6129,7 +6388,7 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -6157,7 +6416,7 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -6185,7 +6444,7 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -6213,7 +6472,7 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -6241,7 +6500,7 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -6269,7 +6528,7 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -6297,7 +6556,7 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -6325,7 +6584,7 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -6353,7 +6612,7 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -6381,7 +6640,7 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -6409,7 +6668,7 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -6437,7 +6696,7 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -6465,7 +6724,7 @@
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -6493,7 +6752,7 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -6521,7 +6780,7 @@
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -6549,7 +6808,7 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -6577,7 +6836,7 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -6605,7 +6864,7 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -6633,7 +6892,7 @@
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -6661,7 +6920,7 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -6689,7 +6948,7 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -6717,7 +6976,7 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -6745,7 +7004,7 @@
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -6773,7 +7032,7 @@
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -6801,7 +7060,7 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -6829,7 +7088,7 @@
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -6857,7 +7116,7 @@
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -6885,7 +7144,7 @@
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -6913,7 +7172,7 @@
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -6941,7 +7200,7 @@
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -6969,7 +7228,7 @@
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -6997,7 +7256,7 @@
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -7025,7 +7284,7 @@
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -7053,7 +7312,7 @@
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -7081,7 +7340,7 @@
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -7109,7 +7368,7 @@
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -7137,7 +7396,7 @@
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -7165,7 +7424,7 @@
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -7193,7 +7452,7 @@
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -7221,7 +7480,7 @@
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -7249,7 +7508,7 @@
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -7277,7 +7536,7 @@
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -7305,7 +7564,7 @@
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -7333,7 +7592,7 @@
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -7361,7 +7620,7 @@
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -7389,7 +7648,7 @@
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -7417,7 +7676,7 @@
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -7445,7 +7704,7 @@
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -7473,7 +7732,7 @@
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -7501,7 +7760,7 @@
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -7529,7 +7788,7 @@
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -7557,7 +7816,7 @@
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -7585,7 +7844,7 @@
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -7613,7 +7872,7 @@
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -7641,7 +7900,7 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -7669,7 +7928,7 @@
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -7697,7 +7956,7 @@
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -7725,7 +7984,7 @@
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -7753,7 +8012,7 @@
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -7781,7 +8040,7 @@
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -7809,7 +8068,7 @@
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -7837,7 +8096,7 @@
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -7865,7 +8124,7 @@
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -7893,7 +8152,7 @@
       <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -7921,7 +8180,7 @@
       <c r="Y85" s="4"/>
       <c r="Z85" s="4"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -7949,7 +8208,7 @@
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -7977,7 +8236,7 @@
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -8005,7 +8264,7 @@
       <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -8033,7 +8292,7 @@
       <c r="Y89" s="4"/>
       <c r="Z89" s="4"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -8061,7 +8320,7 @@
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -8089,7 +8348,7 @@
       <c r="Y91" s="4"/>
       <c r="Z91" s="4"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -8117,7 +8376,7 @@
       <c r="Y92" s="4"/>
       <c r="Z92" s="4"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -8145,7 +8404,7 @@
       <c r="Y93" s="4"/>
       <c r="Z93" s="4"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -8173,7 +8432,7 @@
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -8201,7 +8460,7 @@
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -8229,7 +8488,7 @@
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -8257,7 +8516,7 @@
       <c r="Y97" s="4"/>
       <c r="Z97" s="4"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -8285,7 +8544,7 @@
       <c r="Y98" s="4"/>
       <c r="Z98" s="4"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -8313,7 +8572,7 @@
       <c r="Y99" s="4"/>
       <c r="Z99" s="4"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -8341,7 +8600,7 @@
       <c r="Y100" s="4"/>
       <c r="Z100" s="4"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -8369,7 +8628,7 @@
       <c r="Y101" s="4"/>
       <c r="Z101" s="4"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -8397,7 +8656,7 @@
       <c r="Y102" s="4"/>
       <c r="Z102" s="4"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -8425,7 +8684,7 @@
       <c r="Y103" s="4"/>
       <c r="Z103" s="4"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -8453,7 +8712,7 @@
       <c r="Y104" s="4"/>
       <c r="Z104" s="4"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -8481,7 +8740,7 @@
       <c r="Y105" s="4"/>
       <c r="Z105" s="4"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -8509,7 +8768,7 @@
       <c r="Y106" s="4"/>
       <c r="Z106" s="4"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -8537,7 +8796,7 @@
       <c r="Y107" s="4"/>
       <c r="Z107" s="4"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -8565,7 +8824,7 @@
       <c r="Y108" s="4"/>
       <c r="Z108" s="4"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -8593,7 +8852,7 @@
       <c r="Y109" s="4"/>
       <c r="Z109" s="4"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -8621,7 +8880,7 @@
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -8649,7 +8908,7 @@
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -8677,7 +8936,7 @@
       <c r="Y112" s="4"/>
       <c r="Z112" s="4"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -8705,7 +8964,7 @@
       <c r="Y113" s="4"/>
       <c r="Z113" s="4"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -8733,7 +8992,7 @@
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -8761,7 +9020,7 @@
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -8789,7 +9048,7 @@
       <c r="Y116" s="4"/>
       <c r="Z116" s="4"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -8817,7 +9076,7 @@
       <c r="Y117" s="4"/>
       <c r="Z117" s="4"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -8845,7 +9104,7 @@
       <c r="Y118" s="4"/>
       <c r="Z118" s="4"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -8873,7 +9132,7 @@
       <c r="Y119" s="4"/>
       <c r="Z119" s="4"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -8901,7 +9160,7 @@
       <c r="Y120" s="4"/>
       <c r="Z120" s="4"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -8929,7 +9188,7 @@
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -8957,7 +9216,7 @@
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -8985,7 +9244,7 @@
       <c r="Y123" s="4"/>
       <c r="Z123" s="4"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -9013,7 +9272,7 @@
       <c r="Y124" s="4"/>
       <c r="Z124" s="4"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -9041,7 +9300,7 @@
       <c r="Y125" s="4"/>
       <c r="Z125" s="4"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -9069,7 +9328,7 @@
       <c r="Y126" s="4"/>
       <c r="Z126" s="4"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -9097,7 +9356,7 @@
       <c r="Y127" s="4"/>
       <c r="Z127" s="4"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -9125,7 +9384,7 @@
       <c r="Y128" s="4"/>
       <c r="Z128" s="4"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -9153,7 +9412,7 @@
       <c r="Y129" s="4"/>
       <c r="Z129" s="4"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -9181,7 +9440,7 @@
       <c r="Y130" s="4"/>
       <c r="Z130" s="4"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -9209,7 +9468,7 @@
       <c r="Y131" s="4"/>
       <c r="Z131" s="4"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -9237,7 +9496,7 @@
       <c r="Y132" s="4"/>
       <c r="Z132" s="4"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -9265,7 +9524,7 @@
       <c r="Y133" s="4"/>
       <c r="Z133" s="4"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -9293,7 +9552,7 @@
       <c r="Y134" s="4"/>
       <c r="Z134" s="4"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -9321,7 +9580,7 @@
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -9349,7 +9608,7 @@
       <c r="Y136" s="4"/>
       <c r="Z136" s="4"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -9377,7 +9636,7 @@
       <c r="Y137" s="4"/>
       <c r="Z137" s="4"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -9405,7 +9664,7 @@
       <c r="Y138" s="4"/>
       <c r="Z138" s="4"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -9433,7 +9692,7 @@
       <c r="Y139" s="4"/>
       <c r="Z139" s="4"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -9461,7 +9720,7 @@
       <c r="Y140" s="4"/>
       <c r="Z140" s="4"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -9489,7 +9748,7 @@
       <c r="Y141" s="4"/>
       <c r="Z141" s="4"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -9517,7 +9776,7 @@
       <c r="Y142" s="4"/>
       <c r="Z142" s="4"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -9545,7 +9804,7 @@
       <c r="Y143" s="4"/>
       <c r="Z143" s="4"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -9573,7 +9832,7 @@
       <c r="Y144" s="4"/>
       <c r="Z144" s="4"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -9601,7 +9860,7 @@
       <c r="Y145" s="4"/>
       <c r="Z145" s="4"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -9629,7 +9888,7 @@
       <c r="Y146" s="4"/>
       <c r="Z146" s="4"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -9657,7 +9916,7 @@
       <c r="Y147" s="4"/>
       <c r="Z147" s="4"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -9685,7 +9944,7 @@
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -9713,7 +9972,7 @@
       <c r="Y149" s="4"/>
       <c r="Z149" s="4"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -9741,7 +10000,7 @@
       <c r="Y150" s="4"/>
       <c r="Z150" s="4"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -9769,7 +10028,7 @@
       <c r="Y151" s="4"/>
       <c r="Z151" s="4"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -9797,7 +10056,7 @@
       <c r="Y152" s="4"/>
       <c r="Z152" s="4"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -9825,7 +10084,7 @@
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -9853,7 +10112,7 @@
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -9881,7 +10140,7 @@
       <c r="Y155" s="4"/>
       <c r="Z155" s="4"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -9909,7 +10168,7 @@
       <c r="Y156" s="4"/>
       <c r="Z156" s="4"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -9937,7 +10196,7 @@
       <c r="Y157" s="4"/>
       <c r="Z157" s="4"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -9965,7 +10224,7 @@
       <c r="Y158" s="4"/>
       <c r="Z158" s="4"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -9993,7 +10252,7 @@
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -10021,7 +10280,7 @@
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -10049,7 +10308,7 @@
       <c r="Y161" s="4"/>
       <c r="Z161" s="4"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -10077,7 +10336,7 @@
       <c r="Y162" s="4"/>
       <c r="Z162" s="4"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -10105,7 +10364,7 @@
       <c r="Y163" s="4"/>
       <c r="Z163" s="4"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -10133,7 +10392,7 @@
       <c r="Y164" s="4"/>
       <c r="Z164" s="4"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -10161,7 +10420,7 @@
       <c r="Y165" s="4"/>
       <c r="Z165" s="4"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -10189,7 +10448,7 @@
       <c r="Y166" s="4"/>
       <c r="Z166" s="4"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -10217,7 +10476,7 @@
       <c r="Y167" s="4"/>
       <c r="Z167" s="4"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -10245,7 +10504,7 @@
       <c r="Y168" s="4"/>
       <c r="Z168" s="4"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -10273,7 +10532,7 @@
       <c r="Y169" s="4"/>
       <c r="Z169" s="4"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -10301,7 +10560,7 @@
       <c r="Y170" s="4"/>
       <c r="Z170" s="4"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -10329,7 +10588,7 @@
       <c r="Y171" s="4"/>
       <c r="Z171" s="4"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -10357,7 +10616,7 @@
       <c r="Y172" s="4"/>
       <c r="Z172" s="4"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -10385,7 +10644,7 @@
       <c r="Y173" s="4"/>
       <c r="Z173" s="4"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -10413,7 +10672,7 @@
       <c r="Y174" s="4"/>
       <c r="Z174" s="4"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -10441,7 +10700,7 @@
       <c r="Y175" s="4"/>
       <c r="Z175" s="4"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -10469,7 +10728,7 @@
       <c r="Y176" s="4"/>
       <c r="Z176" s="4"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -10497,7 +10756,7 @@
       <c r="Y177" s="4"/>
       <c r="Z177" s="4"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -10525,7 +10784,7 @@
       <c r="Y178" s="4"/>
       <c r="Z178" s="4"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -10553,7 +10812,7 @@
       <c r="Y179" s="4"/>
       <c r="Z179" s="4"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -10581,7 +10840,7 @@
       <c r="Y180" s="4"/>
       <c r="Z180" s="4"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -10609,7 +10868,7 @@
       <c r="Y181" s="4"/>
       <c r="Z181" s="4"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -10637,7 +10896,7 @@
       <c r="Y182" s="4"/>
       <c r="Z182" s="4"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -10665,7 +10924,7 @@
       <c r="Y183" s="4"/>
       <c r="Z183" s="4"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -10693,7 +10952,7 @@
       <c r="Y184" s="4"/>
       <c r="Z184" s="4"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -10721,7 +10980,7 @@
       <c r="Y185" s="4"/>
       <c r="Z185" s="4"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -10749,7 +11008,7 @@
       <c r="Y186" s="4"/>
       <c r="Z186" s="4"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -10777,7 +11036,7 @@
       <c r="Y187" s="4"/>
       <c r="Z187" s="4"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -10805,7 +11064,7 @@
       <c r="Y188" s="4"/>
       <c r="Z188" s="4"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -10833,7 +11092,7 @@
       <c r="Y189" s="4"/>
       <c r="Z189" s="4"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -10861,7 +11120,7 @@
       <c r="Y190" s="4"/>
       <c r="Z190" s="4"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -10889,7 +11148,7 @@
       <c r="Y191" s="4"/>
       <c r="Z191" s="4"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -10917,7 +11176,7 @@
       <c r="Y192" s="4"/>
       <c r="Z192" s="4"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -10945,7 +11204,7 @@
       <c r="Y193" s="4"/>
       <c r="Z193" s="4"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -10973,7 +11232,7 @@
       <c r="Y194" s="4"/>
       <c r="Z194" s="4"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -11001,7 +11260,7 @@
       <c r="Y195" s="4"/>
       <c r="Z195" s="4"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -11029,7 +11288,7 @@
       <c r="Y196" s="4"/>
       <c r="Z196" s="4"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -11057,7 +11316,7 @@
       <c r="Y197" s="4"/>
       <c r="Z197" s="4"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -11085,7 +11344,7 @@
       <c r="Y198" s="4"/>
       <c r="Z198" s="4"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -11113,7 +11372,7 @@
       <c r="Y199" s="4"/>
       <c r="Z199" s="4"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -11141,7 +11400,7 @@
       <c r="Y200" s="4"/>
       <c r="Z200" s="4"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -11169,7 +11428,7 @@
       <c r="Y201" s="4"/>
       <c r="Z201" s="4"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -11197,7 +11456,7 @@
       <c r="Y202" s="4"/>
       <c r="Z202" s="4"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -11225,7 +11484,7 @@
       <c r="Y203" s="4"/>
       <c r="Z203" s="4"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -11253,7 +11512,7 @@
       <c r="Y204" s="4"/>
       <c r="Z204" s="4"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -11281,7 +11540,7 @@
       <c r="Y205" s="4"/>
       <c r="Z205" s="4"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -11309,7 +11568,7 @@
       <c r="Y206" s="4"/>
       <c r="Z206" s="4"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -11337,7 +11596,7 @@
       <c r="Y207" s="4"/>
       <c r="Z207" s="4"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -11365,7 +11624,7 @@
       <c r="Y208" s="4"/>
       <c r="Z208" s="4"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -11393,7 +11652,7 @@
       <c r="Y209" s="4"/>
       <c r="Z209" s="4"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -11421,7 +11680,7 @@
       <c r="Y210" s="4"/>
       <c r="Z210" s="4"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -11449,7 +11708,7 @@
       <c r="Y211" s="4"/>
       <c r="Z211" s="4"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -11477,7 +11736,7 @@
       <c r="Y212" s="4"/>
       <c r="Z212" s="4"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -11505,7 +11764,7 @@
       <c r="Y213" s="4"/>
       <c r="Z213" s="4"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -11533,7 +11792,7 @@
       <c r="Y214" s="4"/>
       <c r="Z214" s="4"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -11561,7 +11820,7 @@
       <c r="Y215" s="4"/>
       <c r="Z215" s="4"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -11589,7 +11848,7 @@
       <c r="Y216" s="4"/>
       <c r="Z216" s="4"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -11617,7 +11876,7 @@
       <c r="Y217" s="4"/>
       <c r="Z217" s="4"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -11645,7 +11904,7 @@
       <c r="Y218" s="4"/>
       <c r="Z218" s="4"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -11673,7 +11932,7 @@
       <c r="Y219" s="4"/>
       <c r="Z219" s="4"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -11701,10 +11960,10 @@
       <c r="Y220" s="4"/>
       <c r="Z220" s="4"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -12482,32 +12741,30 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.43"/>
-    <col customWidth="1" min="2" max="6" width="14.43"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -12550,7 +12807,7 @@
       <c r="V1" s="17"/>
       <c r="W1" s="17"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>67</v>
       </c>
@@ -12581,7 +12838,7 @@
       <c r="V2" s="17"/>
       <c r="W2" s="17"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>67</v>
       </c>
@@ -12612,7 +12869,7 @@
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -12637,7 +12894,7 @@
       <c r="V4" s="17"/>
       <c r="W4" s="17"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>110</v>
       </c>
@@ -12668,7 +12925,7 @@
       <c r="V5" s="17"/>
       <c r="W5" s="17"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>110</v>
       </c>
@@ -12699,7 +12956,7 @@
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>110</v>
       </c>
@@ -12730,7 +12987,7 @@
       <c r="V7" s="17"/>
       <c r="W7" s="17"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -12755,7 +13012,7 @@
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1">
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -12763,7 +13020,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1">
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -12771,7 +13028,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1">
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -12779,7 +13036,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1">
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -12787,7 +13044,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1">
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -12795,7 +13052,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1">
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -12803,7 +13060,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1">
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -12811,7 +13068,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1">
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -12819,7 +13076,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="4:9" ht="15.75" customHeight="1">
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -12827,7 +13084,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="4:9" ht="15.75" customHeight="1">
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -12835,7 +13092,7 @@
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="4:9" ht="15.75" customHeight="1">
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -12843,7 +13100,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="4:9" ht="15.75" customHeight="1">
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -12851,7 +13108,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="4:9" ht="15.75" customHeight="1">
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -12859,7 +13116,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="4:9" ht="15.75" customHeight="1">
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -12867,7 +13124,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="4:9" ht="15.75" customHeight="1">
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -12875,7 +13132,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="4:9" ht="15.75" customHeight="1">
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -12883,7 +13140,7 @@
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="4:9" ht="15.75" customHeight="1">
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -12891,7 +13148,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="4:9" ht="15.75" customHeight="1">
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -12899,7 +13156,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="4:9" ht="15.75" customHeight="1">
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -12907,7 +13164,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="4:9" ht="15.75" customHeight="1">
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -12915,7 +13172,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="4:9" ht="15.75" customHeight="1">
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -12923,7 +13180,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="4:9" ht="15.75" customHeight="1">
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -12931,7 +13188,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="4:9" ht="15.75" customHeight="1">
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -12939,7 +13196,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="4:9" ht="15.75" customHeight="1">
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
@@ -12947,7 +13204,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="4:9" ht="15.75" customHeight="1">
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
@@ -12955,7 +13212,7 @@
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="4:9" ht="15.75" customHeight="1">
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
@@ -12963,7 +13220,7 @@
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="4:9" ht="15.75" customHeight="1">
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -12971,7 +13228,7 @@
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="4:9" ht="15.75" customHeight="1">
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
@@ -12979,7 +13236,7 @@
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="4:9" ht="15.75" customHeight="1">
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
@@ -12987,7 +13244,7 @@
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="4:9" ht="15.75" customHeight="1">
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
@@ -12995,7 +13252,7 @@
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="4:9" ht="15.75" customHeight="1">
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -13003,7 +13260,7 @@
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="4:9" ht="15.75" customHeight="1">
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
@@ -13011,7 +13268,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="4:9" ht="15.75" customHeight="1">
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
@@ -13019,7 +13276,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="4:9" ht="15.75" customHeight="1">
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
@@ -13027,7 +13284,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="4:9" ht="15.75" customHeight="1">
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
@@ -13035,7 +13292,7 @@
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="4:9" ht="15.75" customHeight="1">
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
@@ -13043,7 +13300,7 @@
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="4:9" ht="15.75" customHeight="1">
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
@@ -13051,7 +13308,7 @@
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="4:9" ht="15.75" customHeight="1">
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
@@ -13059,7 +13316,7 @@
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="4:9" ht="15.75" customHeight="1">
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
@@ -13067,7 +13324,7 @@
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="4:9" ht="15.75" customHeight="1">
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
@@ -13075,7 +13332,7 @@
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="4:9" ht="15.75" customHeight="1">
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
@@ -13083,7 +13340,7 @@
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="4:9" ht="15.75" customHeight="1">
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
@@ -13091,7 +13348,7 @@
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="4:9" ht="15.75" customHeight="1">
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
@@ -13099,7 +13356,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="4:9" ht="15.75" customHeight="1">
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
@@ -13107,7 +13364,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="4:9" ht="15.75" customHeight="1">
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
@@ -13115,7 +13372,7 @@
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="4:9" ht="15.75" customHeight="1">
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
@@ -13123,7 +13380,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="4:9" ht="15.75" customHeight="1">
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -13131,7 +13388,7 @@
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="4:9" ht="15.75" customHeight="1">
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
@@ -13139,7 +13396,7 @@
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="4:9" ht="15.75" customHeight="1">
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
@@ -13147,7 +13404,7 @@
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="4:9" ht="15.75" customHeight="1">
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
@@ -13155,7 +13412,7 @@
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="4:9" ht="15.75" customHeight="1">
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
@@ -13163,7 +13420,7 @@
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="4:9" ht="15.75" customHeight="1">
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -13171,7 +13428,7 @@
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="4:9" ht="15.75" customHeight="1">
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
@@ -13179,7 +13436,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="4:9" ht="15.75" customHeight="1">
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
@@ -13187,7 +13444,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="4:9" ht="15.75" customHeight="1">
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
@@ -13195,7 +13452,7 @@
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="4:9" ht="15.75" customHeight="1">
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
@@ -13203,7 +13460,7 @@
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="4:9" ht="15.75" customHeight="1">
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
@@ -13211,7 +13468,7 @@
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="4:9" ht="15.75" customHeight="1">
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
@@ -13219,7 +13476,7 @@
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="4:9" ht="15.75" customHeight="1">
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
@@ -13227,7 +13484,7 @@
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="4:9" ht="15.75" customHeight="1">
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
@@ -13235,7 +13492,7 @@
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="4:9" ht="15.75" customHeight="1">
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
@@ -13243,7 +13500,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="4:9" ht="15.75" customHeight="1">
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
@@ -13251,7 +13508,7 @@
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="4:9" ht="15.75" customHeight="1">
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
@@ -13259,7 +13516,7 @@
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="4:9" ht="15.75" customHeight="1">
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
       <c r="F72" s="17"/>
@@ -13267,7 +13524,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="4:9" ht="15.75" customHeight="1">
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="17"/>
@@ -13275,7 +13532,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="4:9" ht="15.75" customHeight="1">
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
       <c r="F74" s="17"/>
@@ -13283,7 +13540,7 @@
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="4:9" ht="15.75" customHeight="1">
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
@@ -13291,7 +13548,7 @@
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="4:9" ht="15.75" customHeight="1">
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
@@ -13299,7 +13556,7 @@
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="4:9" ht="15.75" customHeight="1">
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
@@ -13307,7 +13564,7 @@
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="4:9" ht="15.75" customHeight="1">
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
@@ -13315,7 +13572,7 @@
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="4:9" ht="15.75" customHeight="1">
       <c r="D79" s="17"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
@@ -13323,7 +13580,7 @@
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="4:9" ht="15.75" customHeight="1">
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
@@ -13331,7 +13588,7 @@
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="4:9" ht="15.75" customHeight="1">
       <c r="D81" s="17"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
@@ -13339,7 +13596,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="4:9" ht="15.75" customHeight="1">
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
@@ -13347,7 +13604,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="4:9" ht="15.75" customHeight="1">
       <c r="D83" s="17"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
@@ -13355,7 +13612,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="4:9" ht="15.75" customHeight="1">
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
@@ -13363,7 +13620,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="4:9" ht="15.75" customHeight="1">
       <c r="D85" s="17"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
@@ -13371,7 +13628,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="4:9" ht="15.75" customHeight="1">
       <c r="D86" s="17"/>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
@@ -13379,7 +13636,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="4:9" ht="15.75" customHeight="1">
       <c r="D87" s="17"/>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
@@ -13387,7 +13644,7 @@
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="4:9" ht="15.75" customHeight="1">
       <c r="D88" s="17"/>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
@@ -13395,7 +13652,7 @@
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="4:9" ht="15.75" customHeight="1">
       <c r="D89" s="17"/>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
@@ -13403,7 +13660,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="4:9" ht="15.75" customHeight="1">
       <c r="D90" s="17"/>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
@@ -13411,7 +13668,7 @@
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="4:9" ht="15.75" customHeight="1">
       <c r="D91" s="17"/>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
@@ -13419,7 +13676,7 @@
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="4:9" ht="15.75" customHeight="1">
       <c r="D92" s="17"/>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
@@ -13427,7 +13684,7 @@
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="4:9" ht="15.75" customHeight="1">
       <c r="D93" s="17"/>
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
@@ -13435,7 +13692,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="4:9" ht="15.75" customHeight="1">
       <c r="D94" s="17"/>
       <c r="E94" s="17"/>
       <c r="F94" s="17"/>
@@ -13443,7 +13700,7 @@
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="4:9" ht="15.75" customHeight="1">
       <c r="D95" s="17"/>
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
@@ -13451,7 +13708,7 @@
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="4:9" ht="15.75" customHeight="1">
       <c r="D96" s="17"/>
       <c r="E96" s="17"/>
       <c r="F96" s="17"/>
@@ -13459,7 +13716,7 @@
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="4:9" ht="15.75" customHeight="1">
       <c r="D97" s="17"/>
       <c r="E97" s="17"/>
       <c r="F97" s="17"/>
@@ -13467,7 +13724,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="4:9" ht="15.75" customHeight="1">
       <c r="D98" s="17"/>
       <c r="E98" s="17"/>
       <c r="F98" s="17"/>
@@ -13475,7 +13732,7 @@
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="4:9" ht="15.75" customHeight="1">
       <c r="D99" s="17"/>
       <c r="E99" s="17"/>
       <c r="F99" s="17"/>
@@ -13483,7 +13740,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="4:9" ht="15.75" customHeight="1">
       <c r="D100" s="17"/>
       <c r="E100" s="17"/>
       <c r="F100" s="17"/>
@@ -13491,7 +13748,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="4:9" ht="15.75" customHeight="1">
       <c r="D101" s="17"/>
       <c r="E101" s="17"/>
       <c r="F101" s="17"/>
@@ -13499,7 +13756,7 @@
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="4:9" ht="15.75" customHeight="1">
       <c r="D102" s="17"/>
       <c r="E102" s="17"/>
       <c r="F102" s="17"/>
@@ -13507,7 +13764,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="4:9" ht="15.75" customHeight="1">
       <c r="D103" s="17"/>
       <c r="E103" s="17"/>
       <c r="F103" s="17"/>
@@ -13515,7 +13772,7 @@
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="4:9" ht="15.75" customHeight="1">
       <c r="D104" s="17"/>
       <c r="E104" s="17"/>
       <c r="F104" s="17"/>
@@ -13523,7 +13780,7 @@
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="4:9" ht="15.75" customHeight="1">
       <c r="D105" s="17"/>
       <c r="E105" s="17"/>
       <c r="F105" s="17"/>
@@ -13531,7 +13788,7 @@
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="4:9" ht="15.75" customHeight="1">
       <c r="D106" s="17"/>
       <c r="E106" s="17"/>
       <c r="F106" s="17"/>
@@ -13539,7 +13796,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="4:9" ht="15.75" customHeight="1">
       <c r="D107" s="17"/>
       <c r="E107" s="17"/>
       <c r="F107" s="17"/>
@@ -13547,7 +13804,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="4:9" ht="15.75" customHeight="1">
       <c r="D108" s="17"/>
       <c r="E108" s="17"/>
       <c r="F108" s="17"/>
@@ -13555,7 +13812,7 @@
       <c r="H108" s="17"/>
       <c r="I108" s="17"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="4:9" ht="15.75" customHeight="1">
       <c r="D109" s="17"/>
       <c r="E109" s="17"/>
       <c r="F109" s="17"/>
@@ -13563,7 +13820,7 @@
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="4:9" ht="15.75" customHeight="1">
       <c r="D110" s="17"/>
       <c r="E110" s="17"/>
       <c r="F110" s="17"/>
@@ -13571,7 +13828,7 @@
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="4:9" ht="15.75" customHeight="1">
       <c r="D111" s="17"/>
       <c r="E111" s="17"/>
       <c r="F111" s="17"/>
@@ -13579,7 +13836,7 @@
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="4:9" ht="15.75" customHeight="1">
       <c r="D112" s="17"/>
       <c r="E112" s="17"/>
       <c r="F112" s="17"/>
@@ -13587,7 +13844,7 @@
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="4:9" ht="15.75" customHeight="1">
       <c r="D113" s="17"/>
       <c r="E113" s="17"/>
       <c r="F113" s="17"/>
@@ -13595,7 +13852,7 @@
       <c r="H113" s="17"/>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="4:9" ht="15.75" customHeight="1">
       <c r="D114" s="17"/>
       <c r="E114" s="17"/>
       <c r="F114" s="17"/>
@@ -13603,7 +13860,7 @@
       <c r="H114" s="17"/>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="4:9" ht="15.75" customHeight="1">
       <c r="D115" s="17"/>
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
@@ -13611,7 +13868,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="4:9" ht="15.75" customHeight="1">
       <c r="D116" s="17"/>
       <c r="E116" s="17"/>
       <c r="F116" s="17"/>
@@ -13619,7 +13876,7 @@
       <c r="H116" s="17"/>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="4:9" ht="15.75" customHeight="1">
       <c r="D117" s="17"/>
       <c r="E117" s="17"/>
       <c r="F117" s="17"/>
@@ -13627,7 +13884,7 @@
       <c r="H117" s="17"/>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="4:9" ht="15.75" customHeight="1">
       <c r="D118" s="17"/>
       <c r="E118" s="17"/>
       <c r="F118" s="17"/>
@@ -13635,7 +13892,7 @@
       <c r="H118" s="17"/>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="4:9" ht="15.75" customHeight="1">
       <c r="D119" s="17"/>
       <c r="E119" s="17"/>
       <c r="F119" s="17"/>
@@ -13643,7 +13900,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="4:9" ht="15.75" customHeight="1">
       <c r="D120" s="17"/>
       <c r="E120" s="17"/>
       <c r="F120" s="17"/>
@@ -13651,7 +13908,7 @@
       <c r="H120" s="17"/>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="4:9" ht="15.75" customHeight="1">
       <c r="D121" s="17"/>
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
@@ -13659,7 +13916,7 @@
       <c r="H121" s="17"/>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="4:9" ht="15.75" customHeight="1">
       <c r="D122" s="17"/>
       <c r="E122" s="17"/>
       <c r="F122" s="17"/>
@@ -13667,7 +13924,7 @@
       <c r="H122" s="17"/>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="4:9" ht="15.75" customHeight="1">
       <c r="D123" s="17"/>
       <c r="E123" s="17"/>
       <c r="F123" s="17"/>
@@ -13675,7 +13932,7 @@
       <c r="H123" s="17"/>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="4:9" ht="15.75" customHeight="1">
       <c r="D124" s="17"/>
       <c r="E124" s="17"/>
       <c r="F124" s="17"/>
@@ -13683,7 +13940,7 @@
       <c r="H124" s="17"/>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="4:9" ht="15.75" customHeight="1">
       <c r="D125" s="17"/>
       <c r="E125" s="17"/>
       <c r="F125" s="17"/>
@@ -13691,7 +13948,7 @@
       <c r="H125" s="17"/>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="4:9" ht="15.75" customHeight="1">
       <c r="D126" s="17"/>
       <c r="E126" s="17"/>
       <c r="F126" s="17"/>
@@ -13699,7 +13956,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="4:9" ht="15.75" customHeight="1">
       <c r="D127" s="17"/>
       <c r="E127" s="17"/>
       <c r="F127" s="17"/>
@@ -13707,7 +13964,7 @@
       <c r="H127" s="17"/>
       <c r="I127" s="17"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="4:9" ht="15.75" customHeight="1">
       <c r="D128" s="17"/>
       <c r="E128" s="17"/>
       <c r="F128" s="17"/>
@@ -13715,7 +13972,7 @@
       <c r="H128" s="17"/>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="4:9" ht="15.75" customHeight="1">
       <c r="D129" s="17"/>
       <c r="E129" s="17"/>
       <c r="F129" s="17"/>
@@ -13723,7 +13980,7 @@
       <c r="H129" s="17"/>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="4:9" ht="15.75" customHeight="1">
       <c r="D130" s="17"/>
       <c r="E130" s="17"/>
       <c r="F130" s="17"/>
@@ -13731,7 +13988,7 @@
       <c r="H130" s="17"/>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="4:9" ht="15.75" customHeight="1">
       <c r="D131" s="17"/>
       <c r="E131" s="17"/>
       <c r="F131" s="17"/>
@@ -13739,7 +13996,7 @@
       <c r="H131" s="17"/>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="4:9" ht="15.75" customHeight="1">
       <c r="D132" s="17"/>
       <c r="E132" s="17"/>
       <c r="F132" s="17"/>
@@ -13747,7 +14004,7 @@
       <c r="H132" s="17"/>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="4:9" ht="15.75" customHeight="1">
       <c r="D133" s="17"/>
       <c r="E133" s="17"/>
       <c r="F133" s="17"/>
@@ -13755,7 +14012,7 @@
       <c r="H133" s="17"/>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="4:9" ht="15.75" customHeight="1">
       <c r="D134" s="17"/>
       <c r="E134" s="17"/>
       <c r="F134" s="17"/>
@@ -13763,7 +14020,7 @@
       <c r="H134" s="17"/>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="4:9" ht="15.75" customHeight="1">
       <c r="D135" s="17"/>
       <c r="E135" s="17"/>
       <c r="F135" s="17"/>
@@ -13771,7 +14028,7 @@
       <c r="H135" s="17"/>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="4:9" ht="15.75" customHeight="1">
       <c r="D136" s="17"/>
       <c r="E136" s="17"/>
       <c r="F136" s="17"/>
@@ -13779,7 +14036,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="4:9" ht="15.75" customHeight="1">
       <c r="D137" s="17"/>
       <c r="E137" s="17"/>
       <c r="F137" s="17"/>
@@ -13787,7 +14044,7 @@
       <c r="H137" s="17"/>
       <c r="I137" s="17"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="4:9" ht="15.75" customHeight="1">
       <c r="D138" s="17"/>
       <c r="E138" s="17"/>
       <c r="F138" s="17"/>
@@ -13795,7 +14052,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="4:9" ht="15.75" customHeight="1">
       <c r="D139" s="17"/>
       <c r="E139" s="17"/>
       <c r="F139" s="17"/>
@@ -13803,7 +14060,7 @@
       <c r="H139" s="17"/>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="4:9" ht="15.75" customHeight="1">
       <c r="D140" s="17"/>
       <c r="E140" s="17"/>
       <c r="F140" s="17"/>
@@ -13811,7 +14068,7 @@
       <c r="H140" s="17"/>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="4:9" ht="15.75" customHeight="1">
       <c r="D141" s="17"/>
       <c r="E141" s="17"/>
       <c r="F141" s="17"/>
@@ -13819,7 +14076,7 @@
       <c r="H141" s="17"/>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="4:9" ht="15.75" customHeight="1">
       <c r="D142" s="17"/>
       <c r="E142" s="17"/>
       <c r="F142" s="17"/>
@@ -13827,7 +14084,7 @@
       <c r="H142" s="17"/>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="4:9" ht="15.75" customHeight="1">
       <c r="D143" s="17"/>
       <c r="E143" s="17"/>
       <c r="F143" s="17"/>
@@ -13835,7 +14092,7 @@
       <c r="H143" s="17"/>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="4:9" ht="15.75" customHeight="1">
       <c r="D144" s="17"/>
       <c r="E144" s="17"/>
       <c r="F144" s="17"/>
@@ -13843,7 +14100,7 @@
       <c r="H144" s="17"/>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="4:9" ht="15.75" customHeight="1">
       <c r="D145" s="17"/>
       <c r="E145" s="17"/>
       <c r="F145" s="17"/>
@@ -13851,7 +14108,7 @@
       <c r="H145" s="17"/>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="4:9" ht="15.75" customHeight="1">
       <c r="D146" s="17"/>
       <c r="E146" s="17"/>
       <c r="F146" s="17"/>
@@ -13859,7 +14116,7 @@
       <c r="H146" s="17"/>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="4:9" ht="15.75" customHeight="1">
       <c r="D147" s="17"/>
       <c r="E147" s="17"/>
       <c r="F147" s="17"/>
@@ -13867,7 +14124,7 @@
       <c r="H147" s="17"/>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="4:9" ht="15.75" customHeight="1">
       <c r="D148" s="17"/>
       <c r="E148" s="17"/>
       <c r="F148" s="17"/>
@@ -13875,7 +14132,7 @@
       <c r="H148" s="17"/>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="4:9" ht="15.75" customHeight="1">
       <c r="D149" s="17"/>
       <c r="E149" s="17"/>
       <c r="F149" s="17"/>
@@ -13883,7 +14140,7 @@
       <c r="H149" s="17"/>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="4:9" ht="15.75" customHeight="1">
       <c r="D150" s="17"/>
       <c r="E150" s="17"/>
       <c r="F150" s="17"/>
@@ -13891,7 +14148,7 @@
       <c r="H150" s="17"/>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="4:9" ht="15.75" customHeight="1">
       <c r="D151" s="17"/>
       <c r="E151" s="17"/>
       <c r="F151" s="17"/>
@@ -13899,7 +14156,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="4:9" ht="15.75" customHeight="1">
       <c r="D152" s="17"/>
       <c r="E152" s="17"/>
       <c r="F152" s="17"/>
@@ -13907,7 +14164,7 @@
       <c r="H152" s="17"/>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="4:9" ht="15.75" customHeight="1">
       <c r="D153" s="17"/>
       <c r="E153" s="17"/>
       <c r="F153" s="17"/>
@@ -13915,7 +14172,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="4:9" ht="15.75" customHeight="1">
       <c r="D154" s="17"/>
       <c r="E154" s="17"/>
       <c r="F154" s="17"/>
@@ -13923,7 +14180,7 @@
       <c r="H154" s="17"/>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="4:9" ht="15.75" customHeight="1">
       <c r="D155" s="17"/>
       <c r="E155" s="17"/>
       <c r="F155" s="17"/>
@@ -13931,7 +14188,7 @@
       <c r="H155" s="17"/>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="4:9" ht="15.75" customHeight="1">
       <c r="D156" s="17"/>
       <c r="E156" s="17"/>
       <c r="F156" s="17"/>
@@ -13939,7 +14196,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="4:9" ht="15.75" customHeight="1">
       <c r="D157" s="17"/>
       <c r="E157" s="17"/>
       <c r="F157" s="17"/>
@@ -13947,7 +14204,7 @@
       <c r="H157" s="17"/>
       <c r="I157" s="17"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="4:9" ht="15.75" customHeight="1">
       <c r="D158" s="17"/>
       <c r="E158" s="17"/>
       <c r="F158" s="17"/>
@@ -13955,7 +14212,7 @@
       <c r="H158" s="17"/>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="4:9" ht="15.75" customHeight="1">
       <c r="D159" s="17"/>
       <c r="E159" s="17"/>
       <c r="F159" s="17"/>
@@ -13963,7 +14220,7 @@
       <c r="H159" s="17"/>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="4:9" ht="15.75" customHeight="1">
       <c r="D160" s="17"/>
       <c r="E160" s="17"/>
       <c r="F160" s="17"/>
@@ -13971,7 +14228,7 @@
       <c r="H160" s="17"/>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="4:9" ht="15.75" customHeight="1">
       <c r="D161" s="17"/>
       <c r="E161" s="17"/>
       <c r="F161" s="17"/>
@@ -13979,7 +14236,7 @@
       <c r="H161" s="17"/>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="4:9" ht="15.75" customHeight="1">
       <c r="D162" s="17"/>
       <c r="E162" s="17"/>
       <c r="F162" s="17"/>
@@ -13987,7 +14244,7 @@
       <c r="H162" s="17"/>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="4:9" ht="15.75" customHeight="1">
       <c r="D163" s="17"/>
       <c r="E163" s="17"/>
       <c r="F163" s="17"/>
@@ -13995,7 +14252,7 @@
       <c r="H163" s="17"/>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="4:9" ht="15.75" customHeight="1">
       <c r="D164" s="17"/>
       <c r="E164" s="17"/>
       <c r="F164" s="17"/>
@@ -14003,7 +14260,7 @@
       <c r="H164" s="17"/>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="4:9" ht="15.75" customHeight="1">
       <c r="D165" s="17"/>
       <c r="E165" s="17"/>
       <c r="F165" s="17"/>
@@ -14011,7 +14268,7 @@
       <c r="H165" s="17"/>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="4:9" ht="15.75" customHeight="1">
       <c r="D166" s="17"/>
       <c r="E166" s="17"/>
       <c r="F166" s="17"/>
@@ -14019,7 +14276,7 @@
       <c r="H166" s="17"/>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="4:9" ht="15.75" customHeight="1">
       <c r="D167" s="17"/>
       <c r="E167" s="17"/>
       <c r="F167" s="17"/>
@@ -14027,7 +14284,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="4:9" ht="15.75" customHeight="1">
       <c r="D168" s="17"/>
       <c r="E168" s="17"/>
       <c r="F168" s="17"/>
@@ -14035,7 +14292,7 @@
       <c r="H168" s="17"/>
       <c r="I168" s="17"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="4:9" ht="15.75" customHeight="1">
       <c r="D169" s="17"/>
       <c r="E169" s="17"/>
       <c r="F169" s="17"/>
@@ -14043,7 +14300,7 @@
       <c r="H169" s="17"/>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="4:9" ht="15.75" customHeight="1">
       <c r="D170" s="17"/>
       <c r="E170" s="17"/>
       <c r="F170" s="17"/>
@@ -14051,7 +14308,7 @@
       <c r="H170" s="17"/>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="4:9" ht="15.75" customHeight="1">
       <c r="D171" s="17"/>
       <c r="E171" s="17"/>
       <c r="F171" s="17"/>
@@ -14059,7 +14316,7 @@
       <c r="H171" s="17"/>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="4:9" ht="15.75" customHeight="1">
       <c r="D172" s="17"/>
       <c r="E172" s="17"/>
       <c r="F172" s="17"/>
@@ -14067,7 +14324,7 @@
       <c r="H172" s="17"/>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="4:9" ht="15.75" customHeight="1">
       <c r="D173" s="17"/>
       <c r="E173" s="17"/>
       <c r="F173" s="17"/>
@@ -14075,7 +14332,7 @@
       <c r="H173" s="17"/>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="4:9" ht="15.75" customHeight="1">
       <c r="D174" s="17"/>
       <c r="E174" s="17"/>
       <c r="F174" s="17"/>
@@ -14083,7 +14340,7 @@
       <c r="H174" s="17"/>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="4:9" ht="15.75" customHeight="1">
       <c r="D175" s="17"/>
       <c r="E175" s="17"/>
       <c r="F175" s="17"/>
@@ -14091,7 +14348,7 @@
       <c r="H175" s="17"/>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="4:9" ht="15.75" customHeight="1">
       <c r="D176" s="17"/>
       <c r="E176" s="17"/>
       <c r="F176" s="17"/>
@@ -14099,7 +14356,7 @@
       <c r="H176" s="17"/>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="4:9" ht="15.75" customHeight="1">
       <c r="D177" s="17"/>
       <c r="E177" s="17"/>
       <c r="F177" s="17"/>
@@ -14107,7 +14364,7 @@
       <c r="H177" s="17"/>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="4:9" ht="15.75" customHeight="1">
       <c r="D178" s="17"/>
       <c r="E178" s="17"/>
       <c r="F178" s="17"/>
@@ -14115,7 +14372,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="4:9" ht="15.75" customHeight="1">
       <c r="D179" s="17"/>
       <c r="E179" s="17"/>
       <c r="F179" s="17"/>
@@ -14123,7 +14380,7 @@
       <c r="H179" s="17"/>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="4:9" ht="15.75" customHeight="1">
       <c r="D180" s="17"/>
       <c r="E180" s="17"/>
       <c r="F180" s="17"/>
@@ -14131,7 +14388,7 @@
       <c r="H180" s="17"/>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="4:9" ht="15.75" customHeight="1">
       <c r="D181" s="17"/>
       <c r="E181" s="17"/>
       <c r="F181" s="17"/>
@@ -14139,7 +14396,7 @@
       <c r="H181" s="17"/>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="4:9" ht="15.75" customHeight="1">
       <c r="D182" s="17"/>
       <c r="E182" s="17"/>
       <c r="F182" s="17"/>
@@ -14147,7 +14404,7 @@
       <c r="H182" s="17"/>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="4:9" ht="15.75" customHeight="1">
       <c r="D183" s="17"/>
       <c r="E183" s="17"/>
       <c r="F183" s="17"/>
@@ -14155,7 +14412,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="4:9" ht="15.75" customHeight="1">
       <c r="D184" s="17"/>
       <c r="E184" s="17"/>
       <c r="F184" s="17"/>
@@ -14163,7 +14420,7 @@
       <c r="H184" s="17"/>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="4:9" ht="15.75" customHeight="1">
       <c r="D185" s="17"/>
       <c r="E185" s="17"/>
       <c r="F185" s="17"/>
@@ -14171,7 +14428,7 @@
       <c r="H185" s="17"/>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="4:9" ht="15.75" customHeight="1">
       <c r="D186" s="17"/>
       <c r="E186" s="17"/>
       <c r="F186" s="17"/>
@@ -14179,7 +14436,7 @@
       <c r="H186" s="17"/>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="4:9" ht="15.75" customHeight="1">
       <c r="D187" s="17"/>
       <c r="E187" s="17"/>
       <c r="F187" s="17"/>
@@ -14187,7 +14444,7 @@
       <c r="H187" s="17"/>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="4:9" ht="15.75" customHeight="1">
       <c r="D188" s="17"/>
       <c r="E188" s="17"/>
       <c r="F188" s="17"/>
@@ -14195,7 +14452,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="4:9" ht="15.75" customHeight="1">
       <c r="D189" s="17"/>
       <c r="E189" s="17"/>
       <c r="F189" s="17"/>
@@ -14203,7 +14460,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="4:9" ht="15.75" customHeight="1">
       <c r="D190" s="17"/>
       <c r="E190" s="17"/>
       <c r="F190" s="17"/>
@@ -14211,7 +14468,7 @@
       <c r="H190" s="17"/>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="4:9" ht="15.75" customHeight="1">
       <c r="D191" s="17"/>
       <c r="E191" s="17"/>
       <c r="F191" s="17"/>
@@ -14219,7 +14476,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="4:9" ht="15.75" customHeight="1">
       <c r="D192" s="17"/>
       <c r="E192" s="17"/>
       <c r="F192" s="17"/>
@@ -14227,7 +14484,7 @@
       <c r="H192" s="17"/>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="4:9" ht="15.75" customHeight="1">
       <c r="D193" s="17"/>
       <c r="E193" s="17"/>
       <c r="F193" s="17"/>
@@ -14235,7 +14492,7 @@
       <c r="H193" s="17"/>
       <c r="I193" s="17"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="4:9" ht="15.75" customHeight="1">
       <c r="D194" s="17"/>
       <c r="E194" s="17"/>
       <c r="F194" s="17"/>
@@ -14243,7 +14500,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="4:9" ht="15.75" customHeight="1">
       <c r="D195" s="17"/>
       <c r="E195" s="17"/>
       <c r="F195" s="17"/>
@@ -14251,7 +14508,7 @@
       <c r="H195" s="17"/>
       <c r="I195" s="17"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="4:9" ht="15.75" customHeight="1">
       <c r="D196" s="17"/>
       <c r="E196" s="17"/>
       <c r="F196" s="17"/>
@@ -14259,7 +14516,7 @@
       <c r="H196" s="17"/>
       <c r="I196" s="17"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="4:9" ht="15.75" customHeight="1">
       <c r="D197" s="17"/>
       <c r="E197" s="17"/>
       <c r="F197" s="17"/>
@@ -14267,7 +14524,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="4:9" ht="15.75" customHeight="1">
       <c r="D198" s="17"/>
       <c r="E198" s="17"/>
       <c r="F198" s="17"/>
@@ -14275,7 +14532,7 @@
       <c r="H198" s="17"/>
       <c r="I198" s="17"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="4:9" ht="15.75" customHeight="1">
       <c r="D199" s="17"/>
       <c r="E199" s="17"/>
       <c r="F199" s="17"/>
@@ -14283,7 +14540,7 @@
       <c r="H199" s="17"/>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="4:9" ht="15.75" customHeight="1">
       <c r="D200" s="17"/>
       <c r="E200" s="17"/>
       <c r="F200" s="17"/>
@@ -14291,7 +14548,7 @@
       <c r="H200" s="17"/>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="4:9" ht="15.75" customHeight="1">
       <c r="D201" s="17"/>
       <c r="E201" s="17"/>
       <c r="F201" s="17"/>
@@ -14299,7 +14556,7 @@
       <c r="H201" s="17"/>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="4:9" ht="15.75" customHeight="1">
       <c r="D202" s="17"/>
       <c r="E202" s="17"/>
       <c r="F202" s="17"/>
@@ -14307,7 +14564,7 @@
       <c r="H202" s="17"/>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="4:9" ht="15.75" customHeight="1">
       <c r="D203" s="17"/>
       <c r="E203" s="17"/>
       <c r="F203" s="17"/>
@@ -14315,7 +14572,7 @@
       <c r="H203" s="17"/>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="4:9" ht="15.75" customHeight="1">
       <c r="D204" s="17"/>
       <c r="E204" s="17"/>
       <c r="F204" s="17"/>
@@ -14323,7 +14580,7 @@
       <c r="H204" s="17"/>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="4:9" ht="15.75" customHeight="1">
       <c r="D205" s="17"/>
       <c r="E205" s="17"/>
       <c r="F205" s="17"/>
@@ -14331,7 +14588,7 @@
       <c r="H205" s="17"/>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="4:9" ht="15.75" customHeight="1">
       <c r="D206" s="17"/>
       <c r="E206" s="17"/>
       <c r="F206" s="17"/>
@@ -14339,7 +14596,7 @@
       <c r="H206" s="17"/>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="4:9" ht="15.75" customHeight="1">
       <c r="D207" s="17"/>
       <c r="E207" s="17"/>
       <c r="F207" s="17"/>
@@ -14347,7 +14604,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="4:9" ht="15.75" customHeight="1">
       <c r="D208" s="17"/>
       <c r="E208" s="17"/>
       <c r="F208" s="17"/>
@@ -14355,7 +14612,7 @@
       <c r="H208" s="17"/>
       <c r="I208" s="17"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="4:9" ht="15.75" customHeight="1">
       <c r="D209" s="17"/>
       <c r="E209" s="17"/>
       <c r="F209" s="17"/>
@@ -14363,7 +14620,7 @@
       <c r="H209" s="17"/>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="4:9" ht="15.75" customHeight="1">
       <c r="D210" s="17"/>
       <c r="E210" s="17"/>
       <c r="F210" s="17"/>
@@ -14371,7 +14628,7 @@
       <c r="H210" s="17"/>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="4:9" ht="15.75" customHeight="1">
       <c r="D211" s="17"/>
       <c r="E211" s="17"/>
       <c r="F211" s="17"/>
@@ -14379,7 +14636,7 @@
       <c r="H211" s="17"/>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="4:9" ht="15.75" customHeight="1">
       <c r="D212" s="17"/>
       <c r="E212" s="17"/>
       <c r="F212" s="17"/>
@@ -14387,7 +14644,7 @@
       <c r="H212" s="17"/>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="4:9" ht="15.75" customHeight="1">
       <c r="D213" s="17"/>
       <c r="E213" s="17"/>
       <c r="F213" s="17"/>
@@ -14395,7 +14652,7 @@
       <c r="H213" s="17"/>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="4:9" ht="15.75" customHeight="1">
       <c r="D214" s="17"/>
       <c r="E214" s="17"/>
       <c r="F214" s="17"/>
@@ -14403,7 +14660,7 @@
       <c r="H214" s="17"/>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="4:9" ht="15.75" customHeight="1">
       <c r="D215" s="17"/>
       <c r="E215" s="17"/>
       <c r="F215" s="17"/>
@@ -14411,7 +14668,7 @@
       <c r="H215" s="17"/>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="4:9" ht="15.75" customHeight="1">
       <c r="D216" s="17"/>
       <c r="E216" s="17"/>
       <c r="F216" s="17"/>
@@ -14419,7 +14676,7 @@
       <c r="H216" s="17"/>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="4:9" ht="15.75" customHeight="1">
       <c r="D217" s="17"/>
       <c r="E217" s="17"/>
       <c r="F217" s="17"/>
@@ -14427,7 +14684,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="4:9" ht="15.75" customHeight="1">
       <c r="D218" s="17"/>
       <c r="E218" s="17"/>
       <c r="F218" s="17"/>
@@ -14435,7 +14692,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="4:9" ht="15.75" customHeight="1">
       <c r="D219" s="17"/>
       <c r="E219" s="17"/>
       <c r="F219" s="17"/>
@@ -14443,7 +14700,7 @@
       <c r="H219" s="17"/>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="4:9" ht="15.75" customHeight="1">
       <c r="D220" s="17"/>
       <c r="E220" s="17"/>
       <c r="F220" s="17"/>
@@ -14451,10 +14708,10 @@
       <c r="H220" s="17"/>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="4:9" ht="15.75" customHeight="1"/>
+    <row r="222" spans="4:9" ht="15.75" customHeight="1"/>
+    <row r="223" spans="4:9" ht="15.75" customHeight="1"/>
+    <row r="224" spans="4:9" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -15232,9 +15489,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>